--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2939EDA-D339-480E-A8D7-1E8330B2ACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F721855-B745-421E-8988-352FA08AE86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>gachaId|String</t>
   </si>
   <si>
     <t>gachaWeight|Float</t>
+  </si>
+  <si>
+    <t>effectLen_1|Float</t>
+  </si>
+  <si>
+    <t>effectLen_2|Float</t>
+  </si>
+  <si>
+    <t>effectLen_3|Float</t>
+  </si>
+  <si>
+    <t>effectLen_4|Float</t>
   </si>
 </sst>
 </file>
@@ -403,106 +415,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F7E5B-6F2D-42BA-966D-3022DC7DA167}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D5C61-ECF0-4928-B6E7-33C2E3FA0970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDD04C-4799-49BE-B1CB-A1791CF683D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="74">
   <si>
     <t>gachaId|String</t>
   </si>
@@ -239,8 +239,25 @@
     <t>rewardCount2|Int</t>
   </si>
   <si>
+    <t>startYear|Int</t>
+  </si>
+  <si>
+    <t>startMonth|Int</t>
+  </si>
+  <si>
+    <t>startDay|Int</t>
+  </si>
+  <si>
+    <t>endYear|Int</t>
+  </si>
+  <si>
+    <t>endMonth|Int</t>
+  </si>
+  <si>
+    <t>endDay|Int</t>
+  </si>
+  <si>
     <t>modelAddress|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -860,329 +877,619 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE7500-3E4A-44DB-933C-2F280AA8A4CD}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>94</v>
       </c>
-      <c r="C2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="D2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>94</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="b">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>94</v>
       </c>
-      <c r="C4">
+      <c r="I4">
         <v>9</v>
       </c>
-      <c r="D4" t="b">
+      <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="D5" t="b">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>94</v>
       </c>
-      <c r="C6">
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="D6" t="b">
+      <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="D7" t="b">
+      <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>94</v>
       </c>
-      <c r="C8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="D8" t="b">
+      <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>94</v>
       </c>
-      <c r="C9">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="D9" t="b">
+      <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>94</v>
       </c>
-      <c r="C10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="D10" t="b">
+      <c r="J10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>94</v>
       </c>
-      <c r="C11">
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="D11" t="b">
+      <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>2000</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="b">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>94</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="L12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
         <v>94</v>
       </c>
-      <c r="C13">
+      <c r="I13">
         <v>100</v>
       </c>
-      <c r="D13" t="b">
+      <c r="J13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>94</v>
       </c>
-      <c r="C14">
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="D14" t="b">
+      <c r="J14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="K14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
         <v>94</v>
       </c>
-      <c r="C15">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="D15" t="b">
+      <c r="J15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="L15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>94</v>
       </c>
-      <c r="C16">
+      <c r="I16">
         <v>100</v>
       </c>
-      <c r="D16" t="b">
+      <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="K16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="L16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1196,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J628"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDD04C-4799-49BE-B1CB-A1791CF683D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA9836A-7034-4B97-B9B2-CBC6653C6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="74">
   <si>
     <t>gachaId|String</t>
   </si>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE7500-3E4A-44DB-933C-2F280AA8A4CD}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J628"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1552,24 +1554,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2640,24 +2624,6 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36">
-        <v>400</v>
-      </c>
-      <c r="H36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36">
-        <v>40</v>
-      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -3792,24 +3758,6 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72">
-        <v>400</v>
-      </c>
-      <c r="H72" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" t="s">
-        <v>63</v>
-      </c>
-      <c r="J72">
-        <v>40</v>
-      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -5296,24 +5244,6 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" t="s">
-        <v>62</v>
-      </c>
-      <c r="F119" t="s">
-        <v>63</v>
-      </c>
-      <c r="G119">
-        <v>600</v>
-      </c>
-      <c r="H119" t="s">
-        <v>62</v>
-      </c>
-      <c r="I119" t="s">
-        <v>63</v>
-      </c>
-      <c r="J119">
-        <v>60</v>
-      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -7184,24 +7114,6 @@
       <c r="D178">
         <v>0</v>
       </c>
-      <c r="E178" t="s">
-        <v>62</v>
-      </c>
-      <c r="F178" t="s">
-        <v>63</v>
-      </c>
-      <c r="G178">
-        <v>400</v>
-      </c>
-      <c r="H178" t="s">
-        <v>62</v>
-      </c>
-      <c r="I178" t="s">
-        <v>63</v>
-      </c>
-      <c r="J178">
-        <v>40</v>
-      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
@@ -8496,24 +8408,6 @@
       <c r="D219">
         <v>0</v>
       </c>
-      <c r="E219" t="s">
-        <v>62</v>
-      </c>
-      <c r="F219" t="s">
-        <v>63</v>
-      </c>
-      <c r="G219">
-        <v>600</v>
-      </c>
-      <c r="H219" t="s">
-        <v>62</v>
-      </c>
-      <c r="I219" t="s">
-        <v>63</v>
-      </c>
-      <c r="J219">
-        <v>60</v>
-      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -9808,24 +9702,6 @@
       <c r="D260">
         <v>0</v>
       </c>
-      <c r="E260" t="s">
-        <v>62</v>
-      </c>
-      <c r="F260" t="s">
-        <v>63</v>
-      </c>
-      <c r="G260">
-        <v>400</v>
-      </c>
-      <c r="H260" t="s">
-        <v>62</v>
-      </c>
-      <c r="I260" t="s">
-        <v>63</v>
-      </c>
-      <c r="J260">
-        <v>40</v>
-      </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -11120,24 +10996,6 @@
       <c r="D301">
         <v>0</v>
       </c>
-      <c r="E301" t="s">
-        <v>62</v>
-      </c>
-      <c r="F301" t="s">
-        <v>63</v>
-      </c>
-      <c r="G301">
-        <v>600</v>
-      </c>
-      <c r="H301" t="s">
-        <v>62</v>
-      </c>
-      <c r="I301" t="s">
-        <v>63</v>
-      </c>
-      <c r="J301">
-        <v>60</v>
-      </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -12432,24 +12290,6 @@
       <c r="D342">
         <v>0</v>
       </c>
-      <c r="E342" t="s">
-        <v>62</v>
-      </c>
-      <c r="F342" t="s">
-        <v>63</v>
-      </c>
-      <c r="G342">
-        <v>400</v>
-      </c>
-      <c r="H342" t="s">
-        <v>62</v>
-      </c>
-      <c r="I342" t="s">
-        <v>63</v>
-      </c>
-      <c r="J342">
-        <v>40</v>
-      </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
@@ -13744,24 +13584,6 @@
       <c r="D383">
         <v>0</v>
       </c>
-      <c r="E383" t="s">
-        <v>62</v>
-      </c>
-      <c r="F383" t="s">
-        <v>63</v>
-      </c>
-      <c r="G383">
-        <v>600</v>
-      </c>
-      <c r="H383" t="s">
-        <v>62</v>
-      </c>
-      <c r="I383" t="s">
-        <v>63</v>
-      </c>
-      <c r="J383">
-        <v>60</v>
-      </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
@@ -15056,24 +14878,6 @@
       <c r="D424">
         <v>0</v>
       </c>
-      <c r="E424" t="s">
-        <v>62</v>
-      </c>
-      <c r="F424" t="s">
-        <v>63</v>
-      </c>
-      <c r="G424">
-        <v>400</v>
-      </c>
-      <c r="H424" t="s">
-        <v>62</v>
-      </c>
-      <c r="I424" t="s">
-        <v>63</v>
-      </c>
-      <c r="J424">
-        <v>40</v>
-      </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
@@ -16368,24 +16172,6 @@
       <c r="D465">
         <v>0</v>
       </c>
-      <c r="E465" t="s">
-        <v>62</v>
-      </c>
-      <c r="F465" t="s">
-        <v>63</v>
-      </c>
-      <c r="G465">
-        <v>600</v>
-      </c>
-      <c r="H465" t="s">
-        <v>62</v>
-      </c>
-      <c r="I465" t="s">
-        <v>63</v>
-      </c>
-      <c r="J465">
-        <v>60</v>
-      </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
@@ -17680,24 +17466,6 @@
       <c r="D506">
         <v>0</v>
       </c>
-      <c r="E506" t="s">
-        <v>62</v>
-      </c>
-      <c r="F506" t="s">
-        <v>63</v>
-      </c>
-      <c r="G506">
-        <v>400</v>
-      </c>
-      <c r="H506" t="s">
-        <v>62</v>
-      </c>
-      <c r="I506" t="s">
-        <v>63</v>
-      </c>
-      <c r="J506">
-        <v>40</v>
-      </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
@@ -18992,24 +18760,6 @@
       <c r="D547">
         <v>0</v>
       </c>
-      <c r="E547" t="s">
-        <v>62</v>
-      </c>
-      <c r="F547" t="s">
-        <v>63</v>
-      </c>
-      <c r="G547">
-        <v>600</v>
-      </c>
-      <c r="H547" t="s">
-        <v>62</v>
-      </c>
-      <c r="I547" t="s">
-        <v>63</v>
-      </c>
-      <c r="J547">
-        <v>60</v>
-      </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
@@ -20303,24 +20053,6 @@
       </c>
       <c r="D588">
         <v>0</v>
-      </c>
-      <c r="E588" t="s">
-        <v>62</v>
-      </c>
-      <c r="F588" t="s">
-        <v>63</v>
-      </c>
-      <c r="G588">
-        <v>400</v>
-      </c>
-      <c r="H588" t="s">
-        <v>62</v>
-      </c>
-      <c r="I588" t="s">
-        <v>63</v>
-      </c>
-      <c r="J588">
-        <v>40</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.3">

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FC7AF-7C5F-4B8D-BCE5-ADE8134A7B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E140C12-F713-47F8-85D4-178CF57D1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="75">
   <si>
     <t>gachaId|String</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>modelAddress|String</t>
+  </si>
+  <si>
+    <t>lastRewardNum|Int</t>
   </si>
 </sst>
 </file>
@@ -877,619 +880,667 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE7500-3E4A-44DB-933C-2F280AA8A4CD}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>2000</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>94</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
         <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>94</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="b">
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
         <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>94</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9</v>
       </c>
-      <c r="J4" t="b">
+      <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
         <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>94</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="J5" t="b">
+      <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
         <v>2000</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>94</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="J6" t="b">
+      <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
         <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>94</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="b">
+      <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
         <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>3000</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>94</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8" t="b">
+      <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
         <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>3000</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>94</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9" t="b">
+      <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
         <v>2000</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>3000</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>94</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="J10" t="b">
+      <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
         <v>2000</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3000</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>94</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11" t="b">
+      <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>39</v>
       </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
         <v>2000</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>94</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12" t="b">
+      <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
         <v>2022</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2022</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>16</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>94</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="J13" t="b">
+      <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
         <v>2022</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2022</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>94</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="J14" t="b">
+      <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>48</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
         <v>2022</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2022</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>94</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="J15" t="b">
+      <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
         <v>2022</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2022</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>94</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="J16" t="b">
+      <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1503,7 +1554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D5262-910E-407B-B46E-11C449B261F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4CFAC8-34CF-402A-9C91-79348DCAD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F7E5B-6F2D-42BA-966D-3022DC7DA167}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,19 +760,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,19 +820,19 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,19 +840,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -869,9 +869,109 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D3007-BF60-4373-A348-893DC2BCFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFF15A-6B38-4B59-ABC4-AE44736DEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -985,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE7500-3E4A-44DB-933C-2F280AA8A4CD}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1747,7 @@
         <v>33</v>
       </c>
       <c r="G3">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -1756,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,7 +1779,7 @@
         <v>33</v>
       </c>
       <c r="G4">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -1788,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="J4">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1843,7 +1843,7 @@
         <v>33</v>
       </c>
       <c r="G6">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1852,7 +1852,7 @@
         <v>33</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="G7">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -1884,7 +1884,7 @@
         <v>33</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>33</v>
       </c>
       <c r="G9">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1948,7 +1948,7 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1971,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="G10">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -1980,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="G11">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -2012,7 +2012,7 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="G13">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -2076,7 +2076,7 @@
         <v>33</v>
       </c>
       <c r="J13">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="G14">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2108,7 +2108,7 @@
         <v>33</v>
       </c>
       <c r="J14">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2163,7 +2163,7 @@
         <v>33</v>
       </c>
       <c r="G16">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -2172,7 +2172,7 @@
         <v>33</v>
       </c>
       <c r="J16">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2195,7 +2195,7 @@
         <v>33</v>
       </c>
       <c r="G17">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="J17">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>33</v>
       </c>
       <c r="G18">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
@@ -2236,7 +2236,7 @@
         <v>33</v>
       </c>
       <c r="J18">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2291,7 +2291,7 @@
         <v>33</v>
       </c>
       <c r="G20">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -2300,7 +2300,7 @@
         <v>33</v>
       </c>
       <c r="J20">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>33</v>
       </c>
       <c r="G21">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -2332,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2387,7 +2387,7 @@
         <v>33</v>
       </c>
       <c r="G23">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
@@ -2396,7 +2396,7 @@
         <v>33</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2419,7 +2419,7 @@
         <v>33</v>
       </c>
       <c r="G24">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -2428,7 +2428,7 @@
         <v>33</v>
       </c>
       <c r="J24">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
         <v>33</v>
       </c>
       <c r="G25">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
@@ -2460,7 +2460,7 @@
         <v>33</v>
       </c>
       <c r="J25">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2515,7 +2515,7 @@
         <v>33</v>
       </c>
       <c r="G27">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
@@ -2524,7 +2524,7 @@
         <v>33</v>
       </c>
       <c r="J27">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="G28">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -2556,7 +2556,7 @@
         <v>33</v>
       </c>
       <c r="J28">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2611,7 +2611,7 @@
         <v>33</v>
       </c>
       <c r="G30">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -2620,7 +2620,7 @@
         <v>33</v>
       </c>
       <c r="J30">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2643,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="G31">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
@@ -2652,7 +2652,7 @@
         <v>33</v>
       </c>
       <c r="J31">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="G33">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
@@ -2716,7 +2716,7 @@
         <v>33</v>
       </c>
       <c r="J33">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2803,7 +2803,7 @@
         <v>33</v>
       </c>
       <c r="G36">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -2812,7 +2812,7 @@
         <v>33</v>
       </c>
       <c r="J36">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2835,7 +2835,7 @@
         <v>33</v>
       </c>
       <c r="G37">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -2844,7 +2844,7 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
         <v>33</v>
       </c>
       <c r="G39">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -2908,7 +2908,7 @@
         <v>33</v>
       </c>
       <c r="J39">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>33</v>
       </c>
       <c r="G40">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
@@ -2940,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="J40">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>33</v>
       </c>
       <c r="G42">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -3004,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="J42">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -3027,7 +3027,7 @@
         <v>33</v>
       </c>
       <c r="G43">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -3036,7 +3036,7 @@
         <v>33</v>
       </c>
       <c r="J43">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3059,7 +3059,7 @@
         <v>33</v>
       </c>
       <c r="G44">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
@@ -3068,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="J44">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G46">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -3132,7 +3132,7 @@
         <v>33</v>
       </c>
       <c r="J46">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
         <v>33</v>
       </c>
       <c r="G47">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -3164,7 +3164,7 @@
         <v>33</v>
       </c>
       <c r="J47">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3219,7 +3219,7 @@
         <v>33</v>
       </c>
       <c r="G49">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -3228,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="J49">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3251,7 +3251,7 @@
         <v>33</v>
       </c>
       <c r="G50">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -3260,7 +3260,7 @@
         <v>33</v>
       </c>
       <c r="J50">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="G51">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -3292,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="J51">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>33</v>
       </c>
       <c r="G53">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -3356,7 +3356,7 @@
         <v>33</v>
       </c>
       <c r="J53">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
         <v>33</v>
       </c>
       <c r="G54">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -3388,7 +3388,7 @@
         <v>33</v>
       </c>
       <c r="J54">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3443,7 +3443,7 @@
         <v>33</v>
       </c>
       <c r="G56">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
@@ -3452,7 +3452,7 @@
         <v>33</v>
       </c>
       <c r="J56">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3475,7 +3475,7 @@
         <v>33</v>
       </c>
       <c r="G57">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -3484,7 +3484,7 @@
         <v>33</v>
       </c>
       <c r="J57">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
         <v>33</v>
       </c>
       <c r="G58">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -3516,7 +3516,7 @@
         <v>33</v>
       </c>
       <c r="J58">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>33</v>
       </c>
       <c r="G60">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -3580,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="J60">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3603,7 +3603,7 @@
         <v>33</v>
       </c>
       <c r="G61">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -3612,7 +3612,7 @@
         <v>33</v>
       </c>
       <c r="J61">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3667,7 +3667,7 @@
         <v>33</v>
       </c>
       <c r="G63">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
       <c r="J63">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3699,7 +3699,7 @@
         <v>33</v>
       </c>
       <c r="G64">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
@@ -3708,7 +3708,7 @@
         <v>33</v>
       </c>
       <c r="J64">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3763,7 +3763,7 @@
         <v>33</v>
       </c>
       <c r="G66">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
@@ -3772,7 +3772,7 @@
         <v>33</v>
       </c>
       <c r="J66">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3827,7 +3827,7 @@
         <v>33</v>
       </c>
       <c r="G68">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
@@ -3836,7 +3836,7 @@
         <v>33</v>
       </c>
       <c r="J68">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3859,7 +3859,7 @@
         <v>33</v>
       </c>
       <c r="G69">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -3868,7 +3868,7 @@
         <v>33</v>
       </c>
       <c r="J69">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3923,7 +3923,7 @@
         <v>33</v>
       </c>
       <c r="G71">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -3932,7 +3932,7 @@
         <v>33</v>
       </c>
       <c r="J71">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3955,7 +3955,7 @@
         <v>33</v>
       </c>
       <c r="G72">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -3964,7 +3964,7 @@
         <v>33</v>
       </c>
       <c r="J72">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
         <v>33</v>
       </c>
       <c r="G74">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
@@ -4028,7 +4028,7 @@
         <v>33</v>
       </c>
       <c r="J74">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,7 +4051,7 @@
         <v>33</v>
       </c>
       <c r="G75">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -4060,7 +4060,7 @@
         <v>33</v>
       </c>
       <c r="J75">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4115,7 +4115,7 @@
         <v>33</v>
       </c>
       <c r="G77">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
@@ -4124,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="J77">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4147,7 +4147,7 @@
         <v>33</v>
       </c>
       <c r="G78">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -4156,7 +4156,7 @@
         <v>33</v>
       </c>
       <c r="J78">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4179,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="G79">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
@@ -4188,7 +4188,7 @@
         <v>33</v>
       </c>
       <c r="J79">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
         <v>33</v>
       </c>
       <c r="G81">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
@@ -4252,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="J81">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4275,7 +4275,7 @@
         <v>33</v>
       </c>
       <c r="G82">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H82" t="s">
         <v>32</v>
@@ -4284,7 +4284,7 @@
         <v>33</v>
       </c>
       <c r="J82">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>33</v>
       </c>
       <c r="G84">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
@@ -4348,7 +4348,7 @@
         <v>33</v>
       </c>
       <c r="J84">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4371,7 +4371,7 @@
         <v>33</v>
       </c>
       <c r="G85">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
@@ -4380,7 +4380,7 @@
         <v>33</v>
       </c>
       <c r="J85">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4403,7 +4403,7 @@
         <v>33</v>
       </c>
       <c r="G86">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -4412,7 +4412,7 @@
         <v>33</v>
       </c>
       <c r="J86">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -4467,7 +4467,7 @@
         <v>33</v>
       </c>
       <c r="G88">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -4476,7 +4476,7 @@
         <v>33</v>
       </c>
       <c r="J88">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4499,7 +4499,7 @@
         <v>33</v>
       </c>
       <c r="G89">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -4508,7 +4508,7 @@
         <v>33</v>
       </c>
       <c r="J89">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,7 @@
         <v>33</v>
       </c>
       <c r="G91">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -4572,7 +4572,7 @@
         <v>33</v>
       </c>
       <c r="J91">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4595,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="G92">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
@@ -4604,7 +4604,7 @@
         <v>33</v>
       </c>
       <c r="J92">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4627,7 +4627,7 @@
         <v>33</v>
       </c>
       <c r="G93">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
@@ -4636,7 +4636,7 @@
         <v>33</v>
       </c>
       <c r="J93">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4691,7 +4691,7 @@
         <v>33</v>
       </c>
       <c r="G95">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
@@ -4700,7 +4700,7 @@
         <v>33</v>
       </c>
       <c r="J95">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4723,7 +4723,7 @@
         <v>33</v>
       </c>
       <c r="G96">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
@@ -4732,7 +4732,7 @@
         <v>33</v>
       </c>
       <c r="J96">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4787,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="G98">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H98" t="s">
         <v>32</v>
@@ -4796,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="J98">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4819,7 +4819,7 @@
         <v>33</v>
       </c>
       <c r="G99">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H99" t="s">
         <v>32</v>
@@ -4828,7 +4828,7 @@
         <v>33</v>
       </c>
       <c r="J99">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4883,7 +4883,7 @@
         <v>33</v>
       </c>
       <c r="G101">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
@@ -4892,7 +4892,7 @@
         <v>33</v>
       </c>
       <c r="J101">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4947,7 +4947,7 @@
         <v>33</v>
       </c>
       <c r="G103">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -4956,7 +4956,7 @@
         <v>33</v>
       </c>
       <c r="J103">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4979,7 +4979,7 @@
         <v>33</v>
       </c>
       <c r="G104">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H104" t="s">
         <v>32</v>
@@ -4988,7 +4988,7 @@
         <v>33</v>
       </c>
       <c r="J104">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -5043,7 +5043,7 @@
         <v>33</v>
       </c>
       <c r="G106">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H106" t="s">
         <v>32</v>
@@ -5052,7 +5052,7 @@
         <v>33</v>
       </c>
       <c r="J106">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>33</v>
       </c>
       <c r="G107">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
@@ -5084,7 +5084,7 @@
         <v>33</v>
       </c>
       <c r="J107">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -5139,7 +5139,7 @@
         <v>33</v>
       </c>
       <c r="G109">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H109" t="s">
         <v>32</v>
@@ -5148,7 +5148,7 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -5171,7 +5171,7 @@
         <v>33</v>
       </c>
       <c r="G110">
-        <v>280000</v>
+        <v>70000</v>
       </c>
       <c r="H110" t="s">
         <v>32</v>
@@ -5180,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="J110">
-        <v>28000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -5203,7 +5203,7 @@
         <v>33</v>
       </c>
       <c r="G111">
-        <v>365000</v>
+        <v>91250</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
@@ -5212,7 +5212,7 @@
         <v>33</v>
       </c>
       <c r="J111">
-        <v>36500</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -5267,7 +5267,7 @@
         <v>33</v>
       </c>
       <c r="G113">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H113" t="s">
         <v>32</v>
@@ -5276,7 +5276,7 @@
         <v>33</v>
       </c>
       <c r="J113">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -5299,7 +5299,7 @@
         <v>33</v>
       </c>
       <c r="G114">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
@@ -5308,7 +5308,7 @@
         <v>33</v>
       </c>
       <c r="J114">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -5395,7 +5395,7 @@
         <v>33</v>
       </c>
       <c r="G117">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H117" t="s">
         <v>32</v>
@@ -5404,7 +5404,7 @@
         <v>33</v>
       </c>
       <c r="J117">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5427,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="G118">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H118" t="s">
         <v>32</v>
@@ -5436,7 +5436,7 @@
         <v>33</v>
       </c>
       <c r="J118">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,7 +5491,7 @@
         <v>33</v>
       </c>
       <c r="G120">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
@@ -5500,7 +5500,7 @@
         <v>33</v>
       </c>
       <c r="J120">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5523,7 +5523,7 @@
         <v>33</v>
       </c>
       <c r="G121">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H121" t="s">
         <v>32</v>
@@ -5532,7 +5532,7 @@
         <v>33</v>
       </c>
       <c r="J121">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
         <v>33</v>
       </c>
       <c r="G123">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
@@ -5596,7 +5596,7 @@
         <v>33</v>
       </c>
       <c r="J123">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5619,7 +5619,7 @@
         <v>33</v>
       </c>
       <c r="G124">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H124" t="s">
         <v>32</v>
@@ -5628,7 +5628,7 @@
         <v>33</v>
       </c>
       <c r="J124">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
         <v>33</v>
       </c>
       <c r="G125">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -5660,7 +5660,7 @@
         <v>33</v>
       </c>
       <c r="J125">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5715,7 +5715,7 @@
         <v>33</v>
       </c>
       <c r="G127">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H127" t="s">
         <v>32</v>
@@ -5724,7 +5724,7 @@
         <v>33</v>
       </c>
       <c r="J127">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5747,7 +5747,7 @@
         <v>33</v>
       </c>
       <c r="G128">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H128" t="s">
         <v>32</v>
@@ -5756,7 +5756,7 @@
         <v>33</v>
       </c>
       <c r="J128">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5811,7 +5811,7 @@
         <v>33</v>
       </c>
       <c r="G130">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H130" t="s">
         <v>32</v>
@@ -5820,7 +5820,7 @@
         <v>33</v>
       </c>
       <c r="J130">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5843,7 +5843,7 @@
         <v>33</v>
       </c>
       <c r="G131">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H131" t="s">
         <v>32</v>
@@ -5852,7 +5852,7 @@
         <v>33</v>
       </c>
       <c r="J131">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5875,7 +5875,7 @@
         <v>33</v>
       </c>
       <c r="G132">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H132" t="s">
         <v>32</v>
@@ -5884,7 +5884,7 @@
         <v>33</v>
       </c>
       <c r="J132">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5939,7 +5939,7 @@
         <v>33</v>
       </c>
       <c r="G134">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H134" t="s">
         <v>32</v>
@@ -5948,7 +5948,7 @@
         <v>33</v>
       </c>
       <c r="J134">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5971,7 +5971,7 @@
         <v>33</v>
       </c>
       <c r="G135">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H135" t="s">
         <v>32</v>
@@ -5980,7 +5980,7 @@
         <v>33</v>
       </c>
       <c r="J135">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -6035,7 +6035,7 @@
         <v>33</v>
       </c>
       <c r="G137">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H137" t="s">
         <v>32</v>
@@ -6044,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="J137">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -6067,7 +6067,7 @@
         <v>33</v>
       </c>
       <c r="G138">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H138" t="s">
         <v>32</v>
@@ -6076,7 +6076,7 @@
         <v>33</v>
       </c>
       <c r="J138">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -6099,7 +6099,7 @@
         <v>33</v>
       </c>
       <c r="G139">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H139" t="s">
         <v>32</v>
@@ -6108,7 +6108,7 @@
         <v>33</v>
       </c>
       <c r="J139">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -6163,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="G141">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H141" t="s">
         <v>32</v>
@@ -6172,7 +6172,7 @@
         <v>33</v>
       </c>
       <c r="J141">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -6195,7 +6195,7 @@
         <v>33</v>
       </c>
       <c r="G142">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H142" t="s">
         <v>32</v>
@@ -6204,7 +6204,7 @@
         <v>33</v>
       </c>
       <c r="J142">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -6259,7 +6259,7 @@
         <v>33</v>
       </c>
       <c r="G144">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H144" t="s">
         <v>32</v>
@@ -6268,7 +6268,7 @@
         <v>33</v>
       </c>
       <c r="J144">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -6291,7 +6291,7 @@
         <v>33</v>
       </c>
       <c r="G145">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H145" t="s">
         <v>32</v>
@@ -6300,7 +6300,7 @@
         <v>33</v>
       </c>
       <c r="J145">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -6355,7 +6355,7 @@
         <v>33</v>
       </c>
       <c r="G147">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H147" t="s">
         <v>32</v>
@@ -6364,7 +6364,7 @@
         <v>33</v>
       </c>
       <c r="J147">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -6419,7 +6419,7 @@
         <v>33</v>
       </c>
       <c r="G149">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H149" t="s">
         <v>32</v>
@@ -6428,7 +6428,7 @@
         <v>33</v>
       </c>
       <c r="J149">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -6451,7 +6451,7 @@
         <v>33</v>
       </c>
       <c r="G150">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H150" t="s">
         <v>32</v>
@@ -6460,7 +6460,7 @@
         <v>33</v>
       </c>
       <c r="J150">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6515,7 +6515,7 @@
         <v>33</v>
       </c>
       <c r="G152">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H152" t="s">
         <v>32</v>
@@ -6524,7 +6524,7 @@
         <v>33</v>
       </c>
       <c r="J152">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6547,7 +6547,7 @@
         <v>33</v>
       </c>
       <c r="G153">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H153" t="s">
         <v>32</v>
@@ -6556,7 +6556,7 @@
         <v>33</v>
       </c>
       <c r="J153">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -6611,7 +6611,7 @@
         <v>33</v>
       </c>
       <c r="G155">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
@@ -6620,7 +6620,7 @@
         <v>33</v>
       </c>
       <c r="J155">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6643,7 +6643,7 @@
         <v>33</v>
       </c>
       <c r="G156">
-        <v>280000</v>
+        <v>70000</v>
       </c>
       <c r="H156" t="s">
         <v>32</v>
@@ -6652,7 +6652,7 @@
         <v>33</v>
       </c>
       <c r="J156">
-        <v>28000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6675,7 +6675,7 @@
         <v>33</v>
       </c>
       <c r="G157">
-        <v>365000</v>
+        <v>91250</v>
       </c>
       <c r="H157" t="s">
         <v>32</v>
@@ -6684,7 +6684,7 @@
         <v>33</v>
       </c>
       <c r="J157">
-        <v>36500</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6739,7 +6739,7 @@
         <v>33</v>
       </c>
       <c r="G159">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H159" t="s">
         <v>32</v>
@@ -6748,7 +6748,7 @@
         <v>33</v>
       </c>
       <c r="J159">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6771,7 +6771,7 @@
         <v>33</v>
       </c>
       <c r="G160">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H160" t="s">
         <v>32</v>
@@ -6780,7 +6780,7 @@
         <v>33</v>
       </c>
       <c r="J160">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6835,7 +6835,7 @@
         <v>33</v>
       </c>
       <c r="G162">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H162" t="s">
         <v>32</v>
@@ -6844,7 +6844,7 @@
         <v>33</v>
       </c>
       <c r="J162">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6867,7 +6867,7 @@
         <v>33</v>
       </c>
       <c r="G163">
-        <v>475000</v>
+        <v>118750</v>
       </c>
       <c r="H163" t="s">
         <v>32</v>
@@ -6876,7 +6876,7 @@
         <v>33</v>
       </c>
       <c r="J163">
-        <v>47500</v>
+        <v>11875</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6931,7 +6931,7 @@
         <v>33</v>
       </c>
       <c r="G165">
-        <v>550000</v>
+        <v>137500</v>
       </c>
       <c r="H165" t="s">
         <v>32</v>
@@ -6940,7 +6940,7 @@
         <v>33</v>
       </c>
       <c r="J165">
-        <v>55000</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6963,7 +6963,7 @@
         <v>33</v>
       </c>
       <c r="G166">
-        <v>675000</v>
+        <v>168750</v>
       </c>
       <c r="H166" t="s">
         <v>32</v>
@@ -6972,7 +6972,7 @@
         <v>33</v>
       </c>
       <c r="J166">
-        <v>67500</v>
+        <v>16875</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -7027,7 +7027,7 @@
         <v>33</v>
       </c>
       <c r="G168">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H168" t="s">
         <v>32</v>
@@ -7036,7 +7036,7 @@
         <v>33</v>
       </c>
       <c r="J168">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -7059,7 +7059,7 @@
         <v>33</v>
       </c>
       <c r="G169">
-        <v>750000</v>
+        <v>187500</v>
       </c>
       <c r="H169" t="s">
         <v>32</v>
@@ -7068,7 +7068,7 @@
         <v>33</v>
       </c>
       <c r="J169">
-        <v>75000</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -7123,7 +7123,7 @@
         <v>33</v>
       </c>
       <c r="G171">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H171" t="s">
         <v>32</v>
@@ -7132,7 +7132,7 @@
         <v>33</v>
       </c>
       <c r="J171">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -7155,7 +7155,7 @@
         <v>33</v>
       </c>
       <c r="G172">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="H172" t="s">
         <v>32</v>
@@ -7164,7 +7164,7 @@
         <v>33</v>
       </c>
       <c r="J172">
-        <v>80000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -7251,7 +7251,7 @@
         <v>33</v>
       </c>
       <c r="G175">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H175" t="s">
         <v>32</v>
@@ -7260,7 +7260,7 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -7283,7 +7283,7 @@
         <v>33</v>
       </c>
       <c r="G176">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H176" t="s">
         <v>32</v>
@@ -7292,7 +7292,7 @@
         <v>33</v>
       </c>
       <c r="J176">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -7347,7 +7347,7 @@
         <v>33</v>
       </c>
       <c r="G178">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H178" t="s">
         <v>32</v>
@@ -7356,7 +7356,7 @@
         <v>33</v>
       </c>
       <c r="J178">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>33</v>
       </c>
       <c r="G179">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H179" t="s">
         <v>32</v>
@@ -7388,7 +7388,7 @@
         <v>33</v>
       </c>
       <c r="J179">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -7443,7 +7443,7 @@
         <v>33</v>
       </c>
       <c r="G181">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H181" t="s">
         <v>32</v>
@@ -7452,7 +7452,7 @@
         <v>33</v>
       </c>
       <c r="J181">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -7475,7 +7475,7 @@
         <v>33</v>
       </c>
       <c r="G182">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H182" t="s">
         <v>32</v>
@@ -7484,7 +7484,7 @@
         <v>33</v>
       </c>
       <c r="J182">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -7507,7 +7507,7 @@
         <v>33</v>
       </c>
       <c r="G183">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H183" t="s">
         <v>32</v>
@@ -7516,7 +7516,7 @@
         <v>33</v>
       </c>
       <c r="J183">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -7571,7 +7571,7 @@
         <v>33</v>
       </c>
       <c r="G185">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H185" t="s">
         <v>32</v>
@@ -7580,7 +7580,7 @@
         <v>33</v>
       </c>
       <c r="J185">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -7603,7 +7603,7 @@
         <v>33</v>
       </c>
       <c r="G186">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H186" t="s">
         <v>32</v>
@@ -7612,7 +7612,7 @@
         <v>33</v>
       </c>
       <c r="J186">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -7667,7 +7667,7 @@
         <v>33</v>
       </c>
       <c r="G188">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H188" t="s">
         <v>32</v>
@@ -7676,7 +7676,7 @@
         <v>33</v>
       </c>
       <c r="J188">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -7699,7 +7699,7 @@
         <v>33</v>
       </c>
       <c r="G189">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H189" t="s">
         <v>32</v>
@@ -7708,7 +7708,7 @@
         <v>33</v>
       </c>
       <c r="J189">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -7731,7 +7731,7 @@
         <v>33</v>
       </c>
       <c r="G190">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H190" t="s">
         <v>32</v>
@@ -7740,7 +7740,7 @@
         <v>33</v>
       </c>
       <c r="J190">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -7795,7 +7795,7 @@
         <v>33</v>
       </c>
       <c r="G192">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H192" t="s">
         <v>32</v>
@@ -7804,7 +7804,7 @@
         <v>33</v>
       </c>
       <c r="J192">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -7827,7 +7827,7 @@
         <v>33</v>
       </c>
       <c r="G193">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H193" t="s">
         <v>32</v>
@@ -7836,7 +7836,7 @@
         <v>33</v>
       </c>
       <c r="J193">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -7891,7 +7891,7 @@
         <v>33</v>
       </c>
       <c r="G195">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H195" t="s">
         <v>32</v>
@@ -7900,7 +7900,7 @@
         <v>33</v>
       </c>
       <c r="J195">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>33</v>
       </c>
       <c r="G196">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H196" t="s">
         <v>32</v>
@@ -7932,7 +7932,7 @@
         <v>33</v>
       </c>
       <c r="J196">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -7955,7 +7955,7 @@
         <v>33</v>
       </c>
       <c r="G197">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H197" t="s">
         <v>32</v>
@@ -7964,7 +7964,7 @@
         <v>33</v>
       </c>
       <c r="J197">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -8019,7 +8019,7 @@
         <v>33</v>
       </c>
       <c r="G199">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H199" t="s">
         <v>32</v>
@@ -8028,7 +8028,7 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -8051,7 +8051,7 @@
         <v>33</v>
       </c>
       <c r="G200">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H200" t="s">
         <v>32</v>
@@ -8060,7 +8060,7 @@
         <v>33</v>
       </c>
       <c r="J200">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -8115,7 +8115,7 @@
         <v>33</v>
       </c>
       <c r="G202">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H202" t="s">
         <v>32</v>
@@ -8124,7 +8124,7 @@
         <v>33</v>
       </c>
       <c r="J202">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -8147,7 +8147,7 @@
         <v>33</v>
       </c>
       <c r="G203">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H203" t="s">
         <v>32</v>
@@ -8156,7 +8156,7 @@
         <v>33</v>
       </c>
       <c r="J203">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -8211,7 +8211,7 @@
         <v>33</v>
       </c>
       <c r="G205">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H205" t="s">
         <v>32</v>
@@ -8220,7 +8220,7 @@
         <v>33</v>
       </c>
       <c r="J205">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -8275,7 +8275,7 @@
         <v>33</v>
       </c>
       <c r="G207">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H207" t="s">
         <v>32</v>
@@ -8284,7 +8284,7 @@
         <v>33</v>
       </c>
       <c r="J207">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -8307,7 +8307,7 @@
         <v>33</v>
       </c>
       <c r="G208">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H208" t="s">
         <v>32</v>
@@ -8316,7 +8316,7 @@
         <v>33</v>
       </c>
       <c r="J208">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -8371,7 +8371,7 @@
         <v>33</v>
       </c>
       <c r="G210">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H210" t="s">
         <v>32</v>
@@ -8380,7 +8380,7 @@
         <v>33</v>
       </c>
       <c r="J210">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -8403,7 +8403,7 @@
         <v>33</v>
       </c>
       <c r="G211">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H211" t="s">
         <v>32</v>
@@ -8412,7 +8412,7 @@
         <v>33</v>
       </c>
       <c r="J211">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -8467,7 +8467,7 @@
         <v>33</v>
       </c>
       <c r="G213">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H213" t="s">
         <v>32</v>
@@ -8476,7 +8476,7 @@
         <v>33</v>
       </c>
       <c r="J213">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -8531,7 +8531,7 @@
         <v>33</v>
       </c>
       <c r="G215">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H215" t="s">
         <v>32</v>
@@ -8540,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="J215">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -8563,7 +8563,7 @@
         <v>33</v>
       </c>
       <c r="G216">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H216" t="s">
         <v>32</v>
@@ -8572,7 +8572,7 @@
         <v>33</v>
       </c>
       <c r="J216">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -8627,7 +8627,7 @@
         <v>33</v>
       </c>
       <c r="G218">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H218" t="s">
         <v>32</v>
@@ -8636,7 +8636,7 @@
         <v>33</v>
       </c>
       <c r="J218">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -8659,7 +8659,7 @@
         <v>33</v>
       </c>
       <c r="G219">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H219" t="s">
         <v>32</v>
@@ -8668,7 +8668,7 @@
         <v>33</v>
       </c>
       <c r="J219">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -8723,7 +8723,7 @@
         <v>33</v>
       </c>
       <c r="G221">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H221" t="s">
         <v>32</v>
@@ -8732,7 +8732,7 @@
         <v>33</v>
       </c>
       <c r="J221">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -8755,7 +8755,7 @@
         <v>33</v>
       </c>
       <c r="G222">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H222" t="s">
         <v>32</v>
@@ -8764,7 +8764,7 @@
         <v>33</v>
       </c>
       <c r="J222">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -8787,7 +8787,7 @@
         <v>33</v>
       </c>
       <c r="G223">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H223" t="s">
         <v>32</v>
@@ -8796,7 +8796,7 @@
         <v>33</v>
       </c>
       <c r="J223">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -8851,7 +8851,7 @@
         <v>33</v>
       </c>
       <c r="G225">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H225" t="s">
         <v>32</v>
@@ -8860,7 +8860,7 @@
         <v>33</v>
       </c>
       <c r="J225">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -8883,7 +8883,7 @@
         <v>33</v>
       </c>
       <c r="G226">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H226" t="s">
         <v>32</v>
@@ -8892,7 +8892,7 @@
         <v>33</v>
       </c>
       <c r="J226">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -8947,7 +8947,7 @@
         <v>33</v>
       </c>
       <c r="G228">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H228" t="s">
         <v>32</v>
@@ -8956,7 +8956,7 @@
         <v>33</v>
       </c>
       <c r="J228">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -8979,7 +8979,7 @@
         <v>33</v>
       </c>
       <c r="G229">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H229" t="s">
         <v>32</v>
@@ -8988,7 +8988,7 @@
         <v>33</v>
       </c>
       <c r="J229">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9011,7 +9011,7 @@
         <v>33</v>
       </c>
       <c r="G230">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H230" t="s">
         <v>32</v>
@@ -9020,7 +9020,7 @@
         <v>33</v>
       </c>
       <c r="J230">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9075,7 +9075,7 @@
         <v>33</v>
       </c>
       <c r="G232">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H232" t="s">
         <v>32</v>
@@ -9084,7 +9084,7 @@
         <v>33</v>
       </c>
       <c r="J232">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9107,7 +9107,7 @@
         <v>33</v>
       </c>
       <c r="G233">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H233" t="s">
         <v>32</v>
@@ -9116,7 +9116,7 @@
         <v>33</v>
       </c>
       <c r="J233">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9171,7 +9171,7 @@
         <v>33</v>
       </c>
       <c r="G235">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H235" t="s">
         <v>32</v>
@@ -9180,7 +9180,7 @@
         <v>33</v>
       </c>
       <c r="J235">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9203,7 +9203,7 @@
         <v>33</v>
       </c>
       <c r="G236">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H236" t="s">
         <v>32</v>
@@ -9212,7 +9212,7 @@
         <v>33</v>
       </c>
       <c r="J236">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -9235,7 +9235,7 @@
         <v>33</v>
       </c>
       <c r="G237">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H237" t="s">
         <v>32</v>
@@ -9244,7 +9244,7 @@
         <v>33</v>
       </c>
       <c r="J237">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -9299,7 +9299,7 @@
         <v>33</v>
       </c>
       <c r="G239">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H239" t="s">
         <v>32</v>
@@ -9308,7 +9308,7 @@
         <v>33</v>
       </c>
       <c r="J239">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -9331,7 +9331,7 @@
         <v>33</v>
       </c>
       <c r="G240">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H240" t="s">
         <v>32</v>
@@ -9340,7 +9340,7 @@
         <v>33</v>
       </c>
       <c r="J240">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -9395,7 +9395,7 @@
         <v>33</v>
       </c>
       <c r="G242">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H242" t="s">
         <v>32</v>
@@ -9404,7 +9404,7 @@
         <v>33</v>
       </c>
       <c r="J242">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -9427,7 +9427,7 @@
         <v>33</v>
       </c>
       <c r="G243">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H243" t="s">
         <v>32</v>
@@ -9436,7 +9436,7 @@
         <v>33</v>
       </c>
       <c r="J243">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -9491,7 +9491,7 @@
         <v>33</v>
       </c>
       <c r="G245">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H245" t="s">
         <v>32</v>
@@ -9500,7 +9500,7 @@
         <v>33</v>
       </c>
       <c r="J245">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -9555,7 +9555,7 @@
         <v>33</v>
       </c>
       <c r="G247">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H247" t="s">
         <v>32</v>
@@ -9564,7 +9564,7 @@
         <v>33</v>
       </c>
       <c r="J247">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -9587,7 +9587,7 @@
         <v>33</v>
       </c>
       <c r="G248">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H248" t="s">
         <v>32</v>
@@ -9596,7 +9596,7 @@
         <v>33</v>
       </c>
       <c r="J248">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -9651,7 +9651,7 @@
         <v>33</v>
       </c>
       <c r="G250">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H250" t="s">
         <v>32</v>
@@ -9660,7 +9660,7 @@
         <v>33</v>
       </c>
       <c r="J250">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -9683,7 +9683,7 @@
         <v>33</v>
       </c>
       <c r="G251">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H251" t="s">
         <v>32</v>
@@ -9692,7 +9692,7 @@
         <v>33</v>
       </c>
       <c r="J251">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -9747,7 +9747,7 @@
         <v>33</v>
       </c>
       <c r="G253">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H253" t="s">
         <v>32</v>
@@ -9756,7 +9756,7 @@
         <v>33</v>
       </c>
       <c r="J253">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -9811,7 +9811,7 @@
         <v>33</v>
       </c>
       <c r="G255">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
@@ -9820,7 +9820,7 @@
         <v>33</v>
       </c>
       <c r="J255">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -9843,7 +9843,7 @@
         <v>33</v>
       </c>
       <c r="G256">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H256" t="s">
         <v>32</v>
@@ -9852,7 +9852,7 @@
         <v>33</v>
       </c>
       <c r="J256">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -9907,7 +9907,7 @@
         <v>33</v>
       </c>
       <c r="G258">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -9916,7 +9916,7 @@
         <v>33</v>
       </c>
       <c r="J258">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -9939,7 +9939,7 @@
         <v>33</v>
       </c>
       <c r="G259">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
@@ -9948,7 +9948,7 @@
         <v>33</v>
       </c>
       <c r="J259">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10003,7 +10003,7 @@
         <v>33</v>
       </c>
       <c r="G261">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H261" t="s">
         <v>32</v>
@@ -10012,7 +10012,7 @@
         <v>33</v>
       </c>
       <c r="J261">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -10035,7 +10035,7 @@
         <v>33</v>
       </c>
       <c r="G262">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H262" t="s">
         <v>32</v>
@@ -10044,7 +10044,7 @@
         <v>33</v>
       </c>
       <c r="J262">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10067,7 +10067,7 @@
         <v>33</v>
       </c>
       <c r="G263">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H263" t="s">
         <v>32</v>
@@ -10076,7 +10076,7 @@
         <v>33</v>
       </c>
       <c r="J263">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -10131,7 +10131,7 @@
         <v>33</v>
       </c>
       <c r="G265">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H265" t="s">
         <v>32</v>
@@ -10140,7 +10140,7 @@
         <v>33</v>
       </c>
       <c r="J265">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -10163,7 +10163,7 @@
         <v>33</v>
       </c>
       <c r="G266">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H266" t="s">
         <v>32</v>
@@ -10172,7 +10172,7 @@
         <v>33</v>
       </c>
       <c r="J266">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -10227,7 +10227,7 @@
         <v>33</v>
       </c>
       <c r="G268">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H268" t="s">
         <v>32</v>
@@ -10236,7 +10236,7 @@
         <v>33</v>
       </c>
       <c r="J268">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -10259,7 +10259,7 @@
         <v>33</v>
       </c>
       <c r="G269">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H269" t="s">
         <v>32</v>
@@ -10268,7 +10268,7 @@
         <v>33</v>
       </c>
       <c r="J269">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10291,7 +10291,7 @@
         <v>33</v>
       </c>
       <c r="G270">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H270" t="s">
         <v>32</v>
@@ -10300,7 +10300,7 @@
         <v>33</v>
       </c>
       <c r="J270">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -10355,7 +10355,7 @@
         <v>33</v>
       </c>
       <c r="G272">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H272" t="s">
         <v>32</v>
@@ -10364,7 +10364,7 @@
         <v>33</v>
       </c>
       <c r="J272">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>33</v>
       </c>
       <c r="G273">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H273" t="s">
         <v>32</v>
@@ -10396,7 +10396,7 @@
         <v>33</v>
       </c>
       <c r="J273">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -10451,7 +10451,7 @@
         <v>33</v>
       </c>
       <c r="G275">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H275" t="s">
         <v>32</v>
@@ -10460,7 +10460,7 @@
         <v>33</v>
       </c>
       <c r="J275">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -10483,7 +10483,7 @@
         <v>33</v>
       </c>
       <c r="G276">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H276" t="s">
         <v>32</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="J276">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -10515,7 +10515,7 @@
         <v>33</v>
       </c>
       <c r="G277">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H277" t="s">
         <v>32</v>
@@ -10524,7 +10524,7 @@
         <v>33</v>
       </c>
       <c r="J277">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -10579,7 +10579,7 @@
         <v>33</v>
       </c>
       <c r="G279">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H279" t="s">
         <v>32</v>
@@ -10588,7 +10588,7 @@
         <v>33</v>
       </c>
       <c r="J279">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -10611,7 +10611,7 @@
         <v>33</v>
       </c>
       <c r="G280">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H280" t="s">
         <v>32</v>
@@ -10620,7 +10620,7 @@
         <v>33</v>
       </c>
       <c r="J280">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -10675,7 +10675,7 @@
         <v>33</v>
       </c>
       <c r="G282">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H282" t="s">
         <v>32</v>
@@ -10684,7 +10684,7 @@
         <v>33</v>
       </c>
       <c r="J282">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -10707,7 +10707,7 @@
         <v>33</v>
       </c>
       <c r="G283">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H283" t="s">
         <v>32</v>
@@ -10716,7 +10716,7 @@
         <v>33</v>
       </c>
       <c r="J283">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -10771,7 +10771,7 @@
         <v>33</v>
       </c>
       <c r="G285">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H285" t="s">
         <v>32</v>
@@ -10780,7 +10780,7 @@
         <v>33</v>
       </c>
       <c r="J285">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -10835,7 +10835,7 @@
         <v>33</v>
       </c>
       <c r="G287">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H287" t="s">
         <v>32</v>
@@ -10844,7 +10844,7 @@
         <v>33</v>
       </c>
       <c r="J287">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -10867,7 +10867,7 @@
         <v>33</v>
       </c>
       <c r="G288">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H288" t="s">
         <v>32</v>
@@ -10876,7 +10876,7 @@
         <v>33</v>
       </c>
       <c r="J288">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -10931,7 +10931,7 @@
         <v>33</v>
       </c>
       <c r="G290">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H290" t="s">
         <v>32</v>
@@ -10940,7 +10940,7 @@
         <v>33</v>
       </c>
       <c r="J290">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -10963,7 +10963,7 @@
         <v>33</v>
       </c>
       <c r="G291">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H291" t="s">
         <v>32</v>
@@ -10972,7 +10972,7 @@
         <v>33</v>
       </c>
       <c r="J291">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11027,7 +11027,7 @@
         <v>33</v>
       </c>
       <c r="G293">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H293" t="s">
         <v>32</v>
@@ -11036,7 +11036,7 @@
         <v>33</v>
       </c>
       <c r="J293">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -11091,7 +11091,7 @@
         <v>33</v>
       </c>
       <c r="G295">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H295" t="s">
         <v>32</v>
@@ -11100,7 +11100,7 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -11123,7 +11123,7 @@
         <v>33</v>
       </c>
       <c r="G296">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H296" t="s">
         <v>32</v>
@@ -11132,7 +11132,7 @@
         <v>33</v>
       </c>
       <c r="J296">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -11187,7 +11187,7 @@
         <v>33</v>
       </c>
       <c r="G298">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H298" t="s">
         <v>32</v>
@@ -11196,7 +11196,7 @@
         <v>33</v>
       </c>
       <c r="J298">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -11219,7 +11219,7 @@
         <v>33</v>
       </c>
       <c r="G299">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H299" t="s">
         <v>32</v>
@@ -11228,7 +11228,7 @@
         <v>33</v>
       </c>
       <c r="J299">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -11283,7 +11283,7 @@
         <v>33</v>
       </c>
       <c r="G301">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H301" t="s">
         <v>32</v>
@@ -11292,7 +11292,7 @@
         <v>33</v>
       </c>
       <c r="J301">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -11315,7 +11315,7 @@
         <v>33</v>
       </c>
       <c r="G302">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H302" t="s">
         <v>32</v>
@@ -11324,7 +11324,7 @@
         <v>33</v>
       </c>
       <c r="J302">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -11347,7 +11347,7 @@
         <v>33</v>
       </c>
       <c r="G303">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H303" t="s">
         <v>32</v>
@@ -11356,7 +11356,7 @@
         <v>33</v>
       </c>
       <c r="J303">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -11411,7 +11411,7 @@
         <v>33</v>
       </c>
       <c r="G305">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H305" t="s">
         <v>32</v>
@@ -11420,7 +11420,7 @@
         <v>33</v>
       </c>
       <c r="J305">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -11443,7 +11443,7 @@
         <v>33</v>
       </c>
       <c r="G306">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H306" t="s">
         <v>32</v>
@@ -11452,7 +11452,7 @@
         <v>33</v>
       </c>
       <c r="J306">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -11507,7 +11507,7 @@
         <v>33</v>
       </c>
       <c r="G308">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H308" t="s">
         <v>32</v>
@@ -11516,7 +11516,7 @@
         <v>33</v>
       </c>
       <c r="J308">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -11539,7 +11539,7 @@
         <v>33</v>
       </c>
       <c r="G309">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H309" t="s">
         <v>32</v>
@@ -11548,7 +11548,7 @@
         <v>33</v>
       </c>
       <c r="J309">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -11571,7 +11571,7 @@
         <v>33</v>
       </c>
       <c r="G310">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H310" t="s">
         <v>32</v>
@@ -11580,7 +11580,7 @@
         <v>33</v>
       </c>
       <c r="J310">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -11635,7 +11635,7 @@
         <v>33</v>
       </c>
       <c r="G312">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H312" t="s">
         <v>32</v>
@@ -11644,7 +11644,7 @@
         <v>33</v>
       </c>
       <c r="J312">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -11667,7 +11667,7 @@
         <v>33</v>
       </c>
       <c r="G313">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H313" t="s">
         <v>32</v>
@@ -11676,7 +11676,7 @@
         <v>33</v>
       </c>
       <c r="J313">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -11731,7 +11731,7 @@
         <v>33</v>
       </c>
       <c r="G315">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H315" t="s">
         <v>32</v>
@@ -11740,7 +11740,7 @@
         <v>33</v>
       </c>
       <c r="J315">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -11763,7 +11763,7 @@
         <v>33</v>
       </c>
       <c r="G316">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H316" t="s">
         <v>32</v>
@@ -11772,7 +11772,7 @@
         <v>33</v>
       </c>
       <c r="J316">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -11795,7 +11795,7 @@
         <v>33</v>
       </c>
       <c r="G317">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H317" t="s">
         <v>32</v>
@@ -11804,7 +11804,7 @@
         <v>33</v>
       </c>
       <c r="J317">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -11859,7 +11859,7 @@
         <v>33</v>
       </c>
       <c r="G319">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H319" t="s">
         <v>32</v>
@@ -11868,7 +11868,7 @@
         <v>33</v>
       </c>
       <c r="J319">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -11891,7 +11891,7 @@
         <v>33</v>
       </c>
       <c r="G320">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H320" t="s">
         <v>32</v>
@@ -11900,7 +11900,7 @@
         <v>33</v>
       </c>
       <c r="J320">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -11955,7 +11955,7 @@
         <v>33</v>
       </c>
       <c r="G322">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H322" t="s">
         <v>32</v>
@@ -11964,7 +11964,7 @@
         <v>33</v>
       </c>
       <c r="J322">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -11987,7 +11987,7 @@
         <v>33</v>
       </c>
       <c r="G323">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H323" t="s">
         <v>32</v>
@@ -11996,7 +11996,7 @@
         <v>33</v>
       </c>
       <c r="J323">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -12051,7 +12051,7 @@
         <v>33</v>
       </c>
       <c r="G325">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H325" t="s">
         <v>32</v>
@@ -12060,7 +12060,7 @@
         <v>33</v>
       </c>
       <c r="J325">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -12115,7 +12115,7 @@
         <v>33</v>
       </c>
       <c r="G327">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H327" t="s">
         <v>32</v>
@@ -12124,7 +12124,7 @@
         <v>33</v>
       </c>
       <c r="J327">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -12147,7 +12147,7 @@
         <v>33</v>
       </c>
       <c r="G328">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H328" t="s">
         <v>32</v>
@@ -12156,7 +12156,7 @@
         <v>33</v>
       </c>
       <c r="J328">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -12211,7 +12211,7 @@
         <v>33</v>
       </c>
       <c r="G330">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H330" t="s">
         <v>32</v>
@@ -12220,7 +12220,7 @@
         <v>33</v>
       </c>
       <c r="J330">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -12243,7 +12243,7 @@
         <v>33</v>
       </c>
       <c r="G331">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H331" t="s">
         <v>32</v>
@@ -12252,7 +12252,7 @@
         <v>33</v>
       </c>
       <c r="J331">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -12307,7 +12307,7 @@
         <v>33</v>
       </c>
       <c r="G333">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H333" t="s">
         <v>32</v>
@@ -12316,7 +12316,7 @@
         <v>33</v>
       </c>
       <c r="J333">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -12371,7 +12371,7 @@
         <v>33</v>
       </c>
       <c r="G335">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H335" t="s">
         <v>32</v>
@@ -12380,7 +12380,7 @@
         <v>33</v>
       </c>
       <c r="J335">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -12403,7 +12403,7 @@
         <v>33</v>
       </c>
       <c r="G336">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H336" t="s">
         <v>32</v>
@@ -12412,7 +12412,7 @@
         <v>33</v>
       </c>
       <c r="J336">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -12467,7 +12467,7 @@
         <v>33</v>
       </c>
       <c r="G338">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H338" t="s">
         <v>32</v>
@@ -12476,7 +12476,7 @@
         <v>33</v>
       </c>
       <c r="J338">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -12499,7 +12499,7 @@
         <v>33</v>
       </c>
       <c r="G339">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H339" t="s">
         <v>32</v>
@@ -12508,7 +12508,7 @@
         <v>33</v>
       </c>
       <c r="J339">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -12563,7 +12563,7 @@
         <v>33</v>
       </c>
       <c r="G341">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H341" t="s">
         <v>32</v>
@@ -12572,7 +12572,7 @@
         <v>33</v>
       </c>
       <c r="J341">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -12595,7 +12595,7 @@
         <v>33</v>
       </c>
       <c r="G342">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H342" t="s">
         <v>32</v>
@@ -12604,7 +12604,7 @@
         <v>33</v>
       </c>
       <c r="J342">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -12627,7 +12627,7 @@
         <v>33</v>
       </c>
       <c r="G343">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H343" t="s">
         <v>32</v>
@@ -12636,7 +12636,7 @@
         <v>33</v>
       </c>
       <c r="J343">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -12691,7 +12691,7 @@
         <v>33</v>
       </c>
       <c r="G345">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H345" t="s">
         <v>32</v>
@@ -12700,7 +12700,7 @@
         <v>33</v>
       </c>
       <c r="J345">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -12723,7 +12723,7 @@
         <v>33</v>
       </c>
       <c r="G346">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H346" t="s">
         <v>32</v>
@@ -12732,7 +12732,7 @@
         <v>33</v>
       </c>
       <c r="J346">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -12787,7 +12787,7 @@
         <v>33</v>
       </c>
       <c r="G348">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H348" t="s">
         <v>32</v>
@@ -12796,7 +12796,7 @@
         <v>33</v>
       </c>
       <c r="J348">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -12819,7 +12819,7 @@
         <v>33</v>
       </c>
       <c r="G349">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H349" t="s">
         <v>32</v>
@@ -12828,7 +12828,7 @@
         <v>33</v>
       </c>
       <c r="J349">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -12851,7 +12851,7 @@
         <v>33</v>
       </c>
       <c r="G350">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H350" t="s">
         <v>32</v>
@@ -12860,7 +12860,7 @@
         <v>33</v>
       </c>
       <c r="J350">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -12915,7 +12915,7 @@
         <v>33</v>
       </c>
       <c r="G352">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H352" t="s">
         <v>32</v>
@@ -12924,7 +12924,7 @@
         <v>33</v>
       </c>
       <c r="J352">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -12947,7 +12947,7 @@
         <v>33</v>
       </c>
       <c r="G353">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H353" t="s">
         <v>32</v>
@@ -12956,7 +12956,7 @@
         <v>33</v>
       </c>
       <c r="J353">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -13011,7 +13011,7 @@
         <v>33</v>
       </c>
       <c r="G355">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H355" t="s">
         <v>32</v>
@@ -13020,7 +13020,7 @@
         <v>33</v>
       </c>
       <c r="J355">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -13043,7 +13043,7 @@
         <v>33</v>
       </c>
       <c r="G356">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H356" t="s">
         <v>32</v>
@@ -13052,7 +13052,7 @@
         <v>33</v>
       </c>
       <c r="J356">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -13075,7 +13075,7 @@
         <v>33</v>
       </c>
       <c r="G357">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H357" t="s">
         <v>32</v>
@@ -13084,7 +13084,7 @@
         <v>33</v>
       </c>
       <c r="J357">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -13139,7 +13139,7 @@
         <v>33</v>
       </c>
       <c r="G359">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H359" t="s">
         <v>32</v>
@@ -13148,7 +13148,7 @@
         <v>33</v>
       </c>
       <c r="J359">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -13171,7 +13171,7 @@
         <v>33</v>
       </c>
       <c r="G360">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H360" t="s">
         <v>32</v>
@@ -13180,7 +13180,7 @@
         <v>33</v>
       </c>
       <c r="J360">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -13235,7 +13235,7 @@
         <v>33</v>
       </c>
       <c r="G362">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H362" t="s">
         <v>32</v>
@@ -13244,7 +13244,7 @@
         <v>33</v>
       </c>
       <c r="J362">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -13267,7 +13267,7 @@
         <v>33</v>
       </c>
       <c r="G363">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H363" t="s">
         <v>32</v>
@@ -13276,7 +13276,7 @@
         <v>33</v>
       </c>
       <c r="J363">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -13331,7 +13331,7 @@
         <v>33</v>
       </c>
       <c r="G365">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H365" t="s">
         <v>32</v>
@@ -13340,7 +13340,7 @@
         <v>33</v>
       </c>
       <c r="J365">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -13395,7 +13395,7 @@
         <v>33</v>
       </c>
       <c r="G367">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H367" t="s">
         <v>32</v>
@@ -13404,7 +13404,7 @@
         <v>33</v>
       </c>
       <c r="J367">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -13427,7 +13427,7 @@
         <v>33</v>
       </c>
       <c r="G368">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H368" t="s">
         <v>32</v>
@@ -13436,7 +13436,7 @@
         <v>33</v>
       </c>
       <c r="J368">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -13491,7 +13491,7 @@
         <v>33</v>
       </c>
       <c r="G370">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H370" t="s">
         <v>32</v>
@@ -13500,7 +13500,7 @@
         <v>33</v>
       </c>
       <c r="J370">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -13523,7 +13523,7 @@
         <v>33</v>
       </c>
       <c r="G371">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H371" t="s">
         <v>32</v>
@@ -13532,7 +13532,7 @@
         <v>33</v>
       </c>
       <c r="J371">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -13587,7 +13587,7 @@
         <v>33</v>
       </c>
       <c r="G373">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H373" t="s">
         <v>32</v>
@@ -13596,7 +13596,7 @@
         <v>33</v>
       </c>
       <c r="J373">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -13651,7 +13651,7 @@
         <v>33</v>
       </c>
       <c r="G375">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H375" t="s">
         <v>32</v>
@@ -13660,7 +13660,7 @@
         <v>33</v>
       </c>
       <c r="J375">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -13683,7 +13683,7 @@
         <v>33</v>
       </c>
       <c r="G376">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H376" t="s">
         <v>32</v>
@@ -13692,7 +13692,7 @@
         <v>33</v>
       </c>
       <c r="J376">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -13747,7 +13747,7 @@
         <v>33</v>
       </c>
       <c r="G378">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H378" t="s">
         <v>32</v>
@@ -13756,7 +13756,7 @@
         <v>33</v>
       </c>
       <c r="J378">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -13779,7 +13779,7 @@
         <v>33</v>
       </c>
       <c r="G379">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H379" t="s">
         <v>32</v>
@@ -13788,7 +13788,7 @@
         <v>33</v>
       </c>
       <c r="J379">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -13843,7 +13843,7 @@
         <v>33</v>
       </c>
       <c r="G381">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H381" t="s">
         <v>32</v>
@@ -13852,7 +13852,7 @@
         <v>33</v>
       </c>
       <c r="J381">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -13875,7 +13875,7 @@
         <v>33</v>
       </c>
       <c r="G382">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H382" t="s">
         <v>32</v>
@@ -13884,7 +13884,7 @@
         <v>33</v>
       </c>
       <c r="J382">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -13907,7 +13907,7 @@
         <v>33</v>
       </c>
       <c r="G383">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H383" t="s">
         <v>32</v>
@@ -13916,7 +13916,7 @@
         <v>33</v>
       </c>
       <c r="J383">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -13971,7 +13971,7 @@
         <v>33</v>
       </c>
       <c r="G385">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H385" t="s">
         <v>32</v>
@@ -13980,7 +13980,7 @@
         <v>33</v>
       </c>
       <c r="J385">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -14003,7 +14003,7 @@
         <v>33</v>
       </c>
       <c r="G386">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H386" t="s">
         <v>32</v>
@@ -14012,7 +14012,7 @@
         <v>33</v>
       </c>
       <c r="J386">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -14067,7 +14067,7 @@
         <v>33</v>
       </c>
       <c r="G388">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H388" t="s">
         <v>32</v>
@@ -14076,7 +14076,7 @@
         <v>33</v>
       </c>
       <c r="J388">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -14099,7 +14099,7 @@
         <v>33</v>
       </c>
       <c r="G389">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H389" t="s">
         <v>32</v>
@@ -14108,7 +14108,7 @@
         <v>33</v>
       </c>
       <c r="J389">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -14131,7 +14131,7 @@
         <v>33</v>
       </c>
       <c r="G390">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H390" t="s">
         <v>32</v>
@@ -14140,7 +14140,7 @@
         <v>33</v>
       </c>
       <c r="J390">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -14195,7 +14195,7 @@
         <v>33</v>
       </c>
       <c r="G392">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H392" t="s">
         <v>32</v>
@@ -14204,7 +14204,7 @@
         <v>33</v>
       </c>
       <c r="J392">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -14227,7 +14227,7 @@
         <v>33</v>
       </c>
       <c r="G393">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H393" t="s">
         <v>32</v>
@@ -14236,7 +14236,7 @@
         <v>33</v>
       </c>
       <c r="J393">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -14291,7 +14291,7 @@
         <v>33</v>
       </c>
       <c r="G395">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H395" t="s">
         <v>32</v>
@@ -14300,7 +14300,7 @@
         <v>33</v>
       </c>
       <c r="J395">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -14323,7 +14323,7 @@
         <v>33</v>
       </c>
       <c r="G396">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H396" t="s">
         <v>32</v>
@@ -14332,7 +14332,7 @@
         <v>33</v>
       </c>
       <c r="J396">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -14355,7 +14355,7 @@
         <v>33</v>
       </c>
       <c r="G397">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H397" t="s">
         <v>32</v>
@@ -14364,7 +14364,7 @@
         <v>33</v>
       </c>
       <c r="J397">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -14419,7 +14419,7 @@
         <v>33</v>
       </c>
       <c r="G399">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H399" t="s">
         <v>32</v>
@@ -14428,7 +14428,7 @@
         <v>33</v>
       </c>
       <c r="J399">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -14451,7 +14451,7 @@
         <v>33</v>
       </c>
       <c r="G400">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H400" t="s">
         <v>32</v>
@@ -14460,7 +14460,7 @@
         <v>33</v>
       </c>
       <c r="J400">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -14515,7 +14515,7 @@
         <v>33</v>
       </c>
       <c r="G402">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H402" t="s">
         <v>32</v>
@@ -14524,7 +14524,7 @@
         <v>33</v>
       </c>
       <c r="J402">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -14547,7 +14547,7 @@
         <v>33</v>
       </c>
       <c r="G403">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H403" t="s">
         <v>32</v>
@@ -14556,7 +14556,7 @@
         <v>33</v>
       </c>
       <c r="J403">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -14611,7 +14611,7 @@
         <v>33</v>
       </c>
       <c r="G405">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H405" t="s">
         <v>32</v>
@@ -14620,7 +14620,7 @@
         <v>33</v>
       </c>
       <c r="J405">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -14675,7 +14675,7 @@
         <v>33</v>
       </c>
       <c r="G407">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H407" t="s">
         <v>32</v>
@@ -14684,7 +14684,7 @@
         <v>33</v>
       </c>
       <c r="J407">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -14707,7 +14707,7 @@
         <v>33</v>
       </c>
       <c r="G408">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H408" t="s">
         <v>32</v>
@@ -14716,7 +14716,7 @@
         <v>33</v>
       </c>
       <c r="J408">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -14771,7 +14771,7 @@
         <v>33</v>
       </c>
       <c r="G410">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H410" t="s">
         <v>32</v>
@@ -14780,7 +14780,7 @@
         <v>33</v>
       </c>
       <c r="J410">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -14803,7 +14803,7 @@
         <v>33</v>
       </c>
       <c r="G411">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H411" t="s">
         <v>32</v>
@@ -14812,7 +14812,7 @@
         <v>33</v>
       </c>
       <c r="J411">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
@@ -14867,7 +14867,7 @@
         <v>33</v>
       </c>
       <c r="G413">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H413" t="s">
         <v>32</v>
@@ -14876,7 +14876,7 @@
         <v>33</v>
       </c>
       <c r="J413">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
@@ -14931,7 +14931,7 @@
         <v>33</v>
       </c>
       <c r="G415">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H415" t="s">
         <v>32</v>
@@ -14940,7 +14940,7 @@
         <v>33</v>
       </c>
       <c r="J415">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
@@ -14963,7 +14963,7 @@
         <v>33</v>
       </c>
       <c r="G416">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H416" t="s">
         <v>32</v>
@@ -14972,7 +14972,7 @@
         <v>33</v>
       </c>
       <c r="J416">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
@@ -15027,7 +15027,7 @@
         <v>33</v>
       </c>
       <c r="G418">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H418" t="s">
         <v>32</v>
@@ -15036,7 +15036,7 @@
         <v>33</v>
       </c>
       <c r="J418">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
@@ -15059,7 +15059,7 @@
         <v>33</v>
       </c>
       <c r="G419">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H419" t="s">
         <v>32</v>
@@ -15068,7 +15068,7 @@
         <v>33</v>
       </c>
       <c r="J419">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
@@ -15123,7 +15123,7 @@
         <v>33</v>
       </c>
       <c r="G421">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H421" t="s">
         <v>32</v>
@@ -15132,7 +15132,7 @@
         <v>33</v>
       </c>
       <c r="J421">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -15155,7 +15155,7 @@
         <v>33</v>
       </c>
       <c r="G422">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H422" t="s">
         <v>32</v>
@@ -15164,7 +15164,7 @@
         <v>33</v>
       </c>
       <c r="J422">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -15187,7 +15187,7 @@
         <v>33</v>
       </c>
       <c r="G423">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H423" t="s">
         <v>32</v>
@@ -15196,7 +15196,7 @@
         <v>33</v>
       </c>
       <c r="J423">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -15251,7 +15251,7 @@
         <v>33</v>
       </c>
       <c r="G425">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H425" t="s">
         <v>32</v>
@@ -15260,7 +15260,7 @@
         <v>33</v>
       </c>
       <c r="J425">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
@@ -15283,7 +15283,7 @@
         <v>33</v>
       </c>
       <c r="G426">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H426" t="s">
         <v>32</v>
@@ -15292,7 +15292,7 @@
         <v>33</v>
       </c>
       <c r="J426">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
@@ -15347,7 +15347,7 @@
         <v>33</v>
       </c>
       <c r="G428">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H428" t="s">
         <v>32</v>
@@ -15356,7 +15356,7 @@
         <v>33</v>
       </c>
       <c r="J428">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
@@ -15379,7 +15379,7 @@
         <v>33</v>
       </c>
       <c r="G429">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H429" t="s">
         <v>32</v>
@@ -15388,7 +15388,7 @@
         <v>33</v>
       </c>
       <c r="J429">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -15411,7 +15411,7 @@
         <v>33</v>
       </c>
       <c r="G430">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H430" t="s">
         <v>32</v>
@@ -15420,7 +15420,7 @@
         <v>33</v>
       </c>
       <c r="J430">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -15475,7 +15475,7 @@
         <v>33</v>
       </c>
       <c r="G432">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H432" t="s">
         <v>32</v>
@@ -15484,7 +15484,7 @@
         <v>33</v>
       </c>
       <c r="J432">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -15507,7 +15507,7 @@
         <v>33</v>
       </c>
       <c r="G433">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H433" t="s">
         <v>32</v>
@@ -15516,7 +15516,7 @@
         <v>33</v>
       </c>
       <c r="J433">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -15571,7 +15571,7 @@
         <v>33</v>
       </c>
       <c r="G435">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H435" t="s">
         <v>32</v>
@@ -15580,7 +15580,7 @@
         <v>33</v>
       </c>
       <c r="J435">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -15603,7 +15603,7 @@
         <v>33</v>
       </c>
       <c r="G436">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H436" t="s">
         <v>32</v>
@@ -15612,7 +15612,7 @@
         <v>33</v>
       </c>
       <c r="J436">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -15635,7 +15635,7 @@
         <v>33</v>
       </c>
       <c r="G437">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H437" t="s">
         <v>32</v>
@@ -15644,7 +15644,7 @@
         <v>33</v>
       </c>
       <c r="J437">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -15699,7 +15699,7 @@
         <v>33</v>
       </c>
       <c r="G439">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H439" t="s">
         <v>32</v>
@@ -15708,7 +15708,7 @@
         <v>33</v>
       </c>
       <c r="J439">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -15731,7 +15731,7 @@
         <v>33</v>
       </c>
       <c r="G440">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H440" t="s">
         <v>32</v>
@@ -15740,7 +15740,7 @@
         <v>33</v>
       </c>
       <c r="J440">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -15795,7 +15795,7 @@
         <v>33</v>
       </c>
       <c r="G442">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H442" t="s">
         <v>32</v>
@@ -15804,7 +15804,7 @@
         <v>33</v>
       </c>
       <c r="J442">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -15827,7 +15827,7 @@
         <v>33</v>
       </c>
       <c r="G443">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H443" t="s">
         <v>32</v>
@@ -15836,7 +15836,7 @@
         <v>33</v>
       </c>
       <c r="J443">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -15891,7 +15891,7 @@
         <v>33</v>
       </c>
       <c r="G445">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H445" t="s">
         <v>32</v>
@@ -15900,7 +15900,7 @@
         <v>33</v>
       </c>
       <c r="J445">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -15955,7 +15955,7 @@
         <v>33</v>
       </c>
       <c r="G447">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H447" t="s">
         <v>32</v>
@@ -15964,7 +15964,7 @@
         <v>33</v>
       </c>
       <c r="J447">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -15987,7 +15987,7 @@
         <v>33</v>
       </c>
       <c r="G448">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H448" t="s">
         <v>32</v>
@@ -15996,7 +15996,7 @@
         <v>33</v>
       </c>
       <c r="J448">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
@@ -16051,7 +16051,7 @@
         <v>33</v>
       </c>
       <c r="G450">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H450" t="s">
         <v>32</v>
@@ -16060,7 +16060,7 @@
         <v>33</v>
       </c>
       <c r="J450">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
@@ -16083,7 +16083,7 @@
         <v>33</v>
       </c>
       <c r="G451">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H451" t="s">
         <v>32</v>
@@ -16092,7 +16092,7 @@
         <v>33</v>
       </c>
       <c r="J451">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
@@ -16147,7 +16147,7 @@
         <v>33</v>
       </c>
       <c r="G453">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H453" t="s">
         <v>32</v>
@@ -16156,7 +16156,7 @@
         <v>33</v>
       </c>
       <c r="J453">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
@@ -16211,7 +16211,7 @@
         <v>33</v>
       </c>
       <c r="G455">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H455" t="s">
         <v>32</v>
@@ -16220,7 +16220,7 @@
         <v>33</v>
       </c>
       <c r="J455">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
@@ -16243,7 +16243,7 @@
         <v>33</v>
       </c>
       <c r="G456">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H456" t="s">
         <v>32</v>
@@ -16252,7 +16252,7 @@
         <v>33</v>
       </c>
       <c r="J456">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
@@ -16307,7 +16307,7 @@
         <v>33</v>
       </c>
       <c r="G458">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H458" t="s">
         <v>32</v>
@@ -16316,7 +16316,7 @@
         <v>33</v>
       </c>
       <c r="J458">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
@@ -16339,7 +16339,7 @@
         <v>33</v>
       </c>
       <c r="G459">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H459" t="s">
         <v>32</v>
@@ -16348,7 +16348,7 @@
         <v>33</v>
       </c>
       <c r="J459">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
@@ -16403,7 +16403,7 @@
         <v>33</v>
       </c>
       <c r="G461">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H461" t="s">
         <v>32</v>
@@ -16412,7 +16412,7 @@
         <v>33</v>
       </c>
       <c r="J461">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
@@ -16435,7 +16435,7 @@
         <v>33</v>
       </c>
       <c r="G462">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H462" t="s">
         <v>32</v>
@@ -16444,7 +16444,7 @@
         <v>33</v>
       </c>
       <c r="J462">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
@@ -16467,7 +16467,7 @@
         <v>33</v>
       </c>
       <c r="G463">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H463" t="s">
         <v>32</v>
@@ -16476,7 +16476,7 @@
         <v>33</v>
       </c>
       <c r="J463">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
@@ -16531,7 +16531,7 @@
         <v>33</v>
       </c>
       <c r="G465">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H465" t="s">
         <v>32</v>
@@ -16540,7 +16540,7 @@
         <v>33</v>
       </c>
       <c r="J465">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
@@ -16563,7 +16563,7 @@
         <v>33</v>
       </c>
       <c r="G466">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H466" t="s">
         <v>32</v>
@@ -16572,7 +16572,7 @@
         <v>33</v>
       </c>
       <c r="J466">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
@@ -16627,7 +16627,7 @@
         <v>33</v>
       </c>
       <c r="G468">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H468" t="s">
         <v>32</v>
@@ -16636,7 +16636,7 @@
         <v>33</v>
       </c>
       <c r="J468">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
@@ -16659,7 +16659,7 @@
         <v>33</v>
       </c>
       <c r="G469">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H469" t="s">
         <v>32</v>
@@ -16668,7 +16668,7 @@
         <v>33</v>
       </c>
       <c r="J469">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
@@ -16691,7 +16691,7 @@
         <v>33</v>
       </c>
       <c r="G470">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H470" t="s">
         <v>32</v>
@@ -16700,7 +16700,7 @@
         <v>33</v>
       </c>
       <c r="J470">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -16755,7 +16755,7 @@
         <v>33</v>
       </c>
       <c r="G472">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H472" t="s">
         <v>32</v>
@@ -16764,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="J472">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
@@ -16787,7 +16787,7 @@
         <v>33</v>
       </c>
       <c r="G473">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H473" t="s">
         <v>32</v>
@@ -16796,7 +16796,7 @@
         <v>33</v>
       </c>
       <c r="J473">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
@@ -16851,7 +16851,7 @@
         <v>33</v>
       </c>
       <c r="G475">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H475" t="s">
         <v>32</v>
@@ -16860,7 +16860,7 @@
         <v>33</v>
       </c>
       <c r="J475">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
@@ -16883,7 +16883,7 @@
         <v>33</v>
       </c>
       <c r="G476">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H476" t="s">
         <v>32</v>
@@ -16892,7 +16892,7 @@
         <v>33</v>
       </c>
       <c r="J476">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
@@ -16915,7 +16915,7 @@
         <v>33</v>
       </c>
       <c r="G477">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H477" t="s">
         <v>32</v>
@@ -16924,7 +16924,7 @@
         <v>33</v>
       </c>
       <c r="J477">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
@@ -16979,7 +16979,7 @@
         <v>33</v>
       </c>
       <c r="G479">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H479" t="s">
         <v>32</v>
@@ -16988,7 +16988,7 @@
         <v>33</v>
       </c>
       <c r="J479">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
@@ -17011,7 +17011,7 @@
         <v>33</v>
       </c>
       <c r="G480">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H480" t="s">
         <v>32</v>
@@ -17020,7 +17020,7 @@
         <v>33</v>
       </c>
       <c r="J480">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
@@ -17075,7 +17075,7 @@
         <v>33</v>
       </c>
       <c r="G482">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H482" t="s">
         <v>32</v>
@@ -17084,7 +17084,7 @@
         <v>33</v>
       </c>
       <c r="J482">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
@@ -17107,7 +17107,7 @@
         <v>33</v>
       </c>
       <c r="G483">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H483" t="s">
         <v>32</v>
@@ -17116,7 +17116,7 @@
         <v>33</v>
       </c>
       <c r="J483">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -17171,7 +17171,7 @@
         <v>33</v>
       </c>
       <c r="G485">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H485" t="s">
         <v>32</v>
@@ -17180,7 +17180,7 @@
         <v>33</v>
       </c>
       <c r="J485">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
@@ -17235,7 +17235,7 @@
         <v>33</v>
       </c>
       <c r="G487">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H487" t="s">
         <v>32</v>
@@ -17244,7 +17244,7 @@
         <v>33</v>
       </c>
       <c r="J487">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
@@ -17267,7 +17267,7 @@
         <v>33</v>
       </c>
       <c r="G488">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H488" t="s">
         <v>32</v>
@@ -17276,7 +17276,7 @@
         <v>33</v>
       </c>
       <c r="J488">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
@@ -17331,7 +17331,7 @@
         <v>33</v>
       </c>
       <c r="G490">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H490" t="s">
         <v>32</v>
@@ -17340,7 +17340,7 @@
         <v>33</v>
       </c>
       <c r="J490">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
@@ -17363,7 +17363,7 @@
         <v>33</v>
       </c>
       <c r="G491">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H491" t="s">
         <v>32</v>
@@ -17372,7 +17372,7 @@
         <v>33</v>
       </c>
       <c r="J491">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
@@ -17427,7 +17427,7 @@
         <v>33</v>
       </c>
       <c r="G493">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H493" t="s">
         <v>32</v>
@@ -17436,7 +17436,7 @@
         <v>33</v>
       </c>
       <c r="J493">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
@@ -17491,7 +17491,7 @@
         <v>33</v>
       </c>
       <c r="G495">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H495" t="s">
         <v>32</v>
@@ -17500,7 +17500,7 @@
         <v>33</v>
       </c>
       <c r="J495">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
@@ -17523,7 +17523,7 @@
         <v>33</v>
       </c>
       <c r="G496">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H496" t="s">
         <v>32</v>
@@ -17532,7 +17532,7 @@
         <v>33</v>
       </c>
       <c r="J496">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -17587,7 +17587,7 @@
         <v>33</v>
       </c>
       <c r="G498">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H498" t="s">
         <v>32</v>
@@ -17596,7 +17596,7 @@
         <v>33</v>
       </c>
       <c r="J498">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
@@ -17619,7 +17619,7 @@
         <v>33</v>
       </c>
       <c r="G499">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H499" t="s">
         <v>32</v>
@@ -17628,7 +17628,7 @@
         <v>33</v>
       </c>
       <c r="J499">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
@@ -17683,7 +17683,7 @@
         <v>33</v>
       </c>
       <c r="G501">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H501" t="s">
         <v>32</v>
@@ -17692,7 +17692,7 @@
         <v>33</v>
       </c>
       <c r="J501">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
@@ -17715,7 +17715,7 @@
         <v>33</v>
       </c>
       <c r="G502">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H502" t="s">
         <v>32</v>
@@ -17724,7 +17724,7 @@
         <v>33</v>
       </c>
       <c r="J502">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
@@ -17747,7 +17747,7 @@
         <v>33</v>
       </c>
       <c r="G503">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H503" t="s">
         <v>32</v>
@@ -17756,7 +17756,7 @@
         <v>33</v>
       </c>
       <c r="J503">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
@@ -17811,7 +17811,7 @@
         <v>33</v>
       </c>
       <c r="G505">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H505" t="s">
         <v>32</v>
@@ -17820,7 +17820,7 @@
         <v>33</v>
       </c>
       <c r="J505">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
@@ -17843,7 +17843,7 @@
         <v>33</v>
       </c>
       <c r="G506">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H506" t="s">
         <v>32</v>
@@ -17852,7 +17852,7 @@
         <v>33</v>
       </c>
       <c r="J506">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
@@ -17907,7 +17907,7 @@
         <v>33</v>
       </c>
       <c r="G508">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H508" t="s">
         <v>32</v>
@@ -17916,7 +17916,7 @@
         <v>33</v>
       </c>
       <c r="J508">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
@@ -17939,7 +17939,7 @@
         <v>33</v>
       </c>
       <c r="G509">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H509" t="s">
         <v>32</v>
@@ -17948,7 +17948,7 @@
         <v>33</v>
       </c>
       <c r="J509">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
@@ -17971,7 +17971,7 @@
         <v>33</v>
       </c>
       <c r="G510">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H510" t="s">
         <v>32</v>
@@ -17980,7 +17980,7 @@
         <v>33</v>
       </c>
       <c r="J510">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
@@ -18035,7 +18035,7 @@
         <v>33</v>
       </c>
       <c r="G512">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H512" t="s">
         <v>32</v>
@@ -18044,7 +18044,7 @@
         <v>33</v>
       </c>
       <c r="J512">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
@@ -18067,7 +18067,7 @@
         <v>33</v>
       </c>
       <c r="G513">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H513" t="s">
         <v>32</v>
@@ -18076,7 +18076,7 @@
         <v>33</v>
       </c>
       <c r="J513">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
@@ -18131,7 +18131,7 @@
         <v>33</v>
       </c>
       <c r="G515">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H515" t="s">
         <v>32</v>
@@ -18140,7 +18140,7 @@
         <v>33</v>
       </c>
       <c r="J515">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
@@ -18163,7 +18163,7 @@
         <v>33</v>
       </c>
       <c r="G516">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H516" t="s">
         <v>32</v>
@@ -18172,7 +18172,7 @@
         <v>33</v>
       </c>
       <c r="J516">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
@@ -18195,7 +18195,7 @@
         <v>33</v>
       </c>
       <c r="G517">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H517" t="s">
         <v>32</v>
@@ -18204,7 +18204,7 @@
         <v>33</v>
       </c>
       <c r="J517">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
@@ -18259,7 +18259,7 @@
         <v>33</v>
       </c>
       <c r="G519">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H519" t="s">
         <v>32</v>
@@ -18268,7 +18268,7 @@
         <v>33</v>
       </c>
       <c r="J519">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
@@ -18291,7 +18291,7 @@
         <v>33</v>
       </c>
       <c r="G520">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H520" t="s">
         <v>32</v>
@@ -18300,7 +18300,7 @@
         <v>33</v>
       </c>
       <c r="J520">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
@@ -18355,7 +18355,7 @@
         <v>33</v>
       </c>
       <c r="G522">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H522" t="s">
         <v>32</v>
@@ -18364,7 +18364,7 @@
         <v>33</v>
       </c>
       <c r="J522">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
@@ -18387,7 +18387,7 @@
         <v>33</v>
       </c>
       <c r="G523">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H523" t="s">
         <v>32</v>
@@ -18396,7 +18396,7 @@
         <v>33</v>
       </c>
       <c r="J523">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
@@ -18451,7 +18451,7 @@
         <v>33</v>
       </c>
       <c r="G525">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H525" t="s">
         <v>32</v>
@@ -18460,7 +18460,7 @@
         <v>33</v>
       </c>
       <c r="J525">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
@@ -18515,7 +18515,7 @@
         <v>33</v>
       </c>
       <c r="G527">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H527" t="s">
         <v>32</v>
@@ -18524,7 +18524,7 @@
         <v>33</v>
       </c>
       <c r="J527">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
@@ -18547,7 +18547,7 @@
         <v>33</v>
       </c>
       <c r="G528">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H528" t="s">
         <v>32</v>
@@ -18556,7 +18556,7 @@
         <v>33</v>
       </c>
       <c r="J528">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
@@ -18611,7 +18611,7 @@
         <v>33</v>
       </c>
       <c r="G530">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H530" t="s">
         <v>32</v>
@@ -18620,7 +18620,7 @@
         <v>33</v>
       </c>
       <c r="J530">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
@@ -18643,7 +18643,7 @@
         <v>33</v>
       </c>
       <c r="G531">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H531" t="s">
         <v>32</v>
@@ -18652,7 +18652,7 @@
         <v>33</v>
       </c>
       <c r="J531">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
@@ -18707,7 +18707,7 @@
         <v>33</v>
       </c>
       <c r="G533">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H533" t="s">
         <v>32</v>
@@ -18716,7 +18716,7 @@
         <v>33</v>
       </c>
       <c r="J533">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
@@ -18771,7 +18771,7 @@
         <v>33</v>
       </c>
       <c r="G535">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H535" t="s">
         <v>32</v>
@@ -18780,7 +18780,7 @@
         <v>33</v>
       </c>
       <c r="J535">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
@@ -18803,7 +18803,7 @@
         <v>33</v>
       </c>
       <c r="G536">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H536" t="s">
         <v>32</v>
@@ -18812,7 +18812,7 @@
         <v>33</v>
       </c>
       <c r="J536">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
@@ -18867,7 +18867,7 @@
         <v>33</v>
       </c>
       <c r="G538">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H538" t="s">
         <v>32</v>
@@ -18876,7 +18876,7 @@
         <v>33</v>
       </c>
       <c r="J538">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
@@ -18899,7 +18899,7 @@
         <v>33</v>
       </c>
       <c r="G539">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H539" t="s">
         <v>32</v>
@@ -18908,7 +18908,7 @@
         <v>33</v>
       </c>
       <c r="J539">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
@@ -18963,7 +18963,7 @@
         <v>33</v>
       </c>
       <c r="G541">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H541" t="s">
         <v>32</v>
@@ -18972,7 +18972,7 @@
         <v>33</v>
       </c>
       <c r="J541">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.3">
@@ -18995,7 +18995,7 @@
         <v>33</v>
       </c>
       <c r="G542">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H542" t="s">
         <v>32</v>
@@ -19004,7 +19004,7 @@
         <v>33</v>
       </c>
       <c r="J542">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.3">
@@ -19027,7 +19027,7 @@
         <v>33</v>
       </c>
       <c r="G543">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H543" t="s">
         <v>32</v>
@@ -19036,7 +19036,7 @@
         <v>33</v>
       </c>
       <c r="J543">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.3">
@@ -19091,7 +19091,7 @@
         <v>33</v>
       </c>
       <c r="G545">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H545" t="s">
         <v>32</v>
@@ -19100,7 +19100,7 @@
         <v>33</v>
       </c>
       <c r="J545">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
@@ -19123,7 +19123,7 @@
         <v>33</v>
       </c>
       <c r="G546">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H546" t="s">
         <v>32</v>
@@ -19132,7 +19132,7 @@
         <v>33</v>
       </c>
       <c r="J546">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
@@ -19187,7 +19187,7 @@
         <v>33</v>
       </c>
       <c r="G548">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H548" t="s">
         <v>32</v>
@@ -19196,7 +19196,7 @@
         <v>33</v>
       </c>
       <c r="J548">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
@@ -19219,7 +19219,7 @@
         <v>33</v>
       </c>
       <c r="G549">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H549" t="s">
         <v>32</v>
@@ -19228,7 +19228,7 @@
         <v>33</v>
       </c>
       <c r="J549">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
@@ -19251,7 +19251,7 @@
         <v>33</v>
       </c>
       <c r="G550">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H550" t="s">
         <v>32</v>
@@ -19260,7 +19260,7 @@
         <v>33</v>
       </c>
       <c r="J550">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
@@ -19315,7 +19315,7 @@
         <v>33</v>
       </c>
       <c r="G552">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H552" t="s">
         <v>32</v>
@@ -19324,7 +19324,7 @@
         <v>33</v>
       </c>
       <c r="J552">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
@@ -19347,7 +19347,7 @@
         <v>33</v>
       </c>
       <c r="G553">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H553" t="s">
         <v>32</v>
@@ -19356,7 +19356,7 @@
         <v>33</v>
       </c>
       <c r="J553">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
@@ -19411,7 +19411,7 @@
         <v>33</v>
       </c>
       <c r="G555">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H555" t="s">
         <v>32</v>
@@ -19420,7 +19420,7 @@
         <v>33</v>
       </c>
       <c r="J555">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
@@ -19443,7 +19443,7 @@
         <v>33</v>
       </c>
       <c r="G556">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H556" t="s">
         <v>32</v>
@@ -19452,7 +19452,7 @@
         <v>33</v>
       </c>
       <c r="J556">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
@@ -19475,7 +19475,7 @@
         <v>33</v>
       </c>
       <c r="G557">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H557" t="s">
         <v>32</v>
@@ -19484,7 +19484,7 @@
         <v>33</v>
       </c>
       <c r="J557">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
@@ -19539,7 +19539,7 @@
         <v>33</v>
       </c>
       <c r="G559">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H559" t="s">
         <v>32</v>
@@ -19548,7 +19548,7 @@
         <v>33</v>
       </c>
       <c r="J559">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
@@ -19571,7 +19571,7 @@
         <v>33</v>
       </c>
       <c r="G560">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H560" t="s">
         <v>32</v>
@@ -19580,7 +19580,7 @@
         <v>33</v>
       </c>
       <c r="J560">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
@@ -19635,7 +19635,7 @@
         <v>33</v>
       </c>
       <c r="G562">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H562" t="s">
         <v>32</v>
@@ -19644,7 +19644,7 @@
         <v>33</v>
       </c>
       <c r="J562">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
@@ -19667,7 +19667,7 @@
         <v>33</v>
       </c>
       <c r="G563">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H563" t="s">
         <v>32</v>
@@ -19676,7 +19676,7 @@
         <v>33</v>
       </c>
       <c r="J563">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
@@ -19731,7 +19731,7 @@
         <v>33</v>
       </c>
       <c r="G565">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H565" t="s">
         <v>32</v>
@@ -19740,7 +19740,7 @@
         <v>33</v>
       </c>
       <c r="J565">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
@@ -19795,7 +19795,7 @@
         <v>33</v>
       </c>
       <c r="G567">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H567" t="s">
         <v>32</v>
@@ -19804,7 +19804,7 @@
         <v>33</v>
       </c>
       <c r="J567">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
@@ -19827,7 +19827,7 @@
         <v>33</v>
       </c>
       <c r="G568">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H568" t="s">
         <v>32</v>
@@ -19836,7 +19836,7 @@
         <v>33</v>
       </c>
       <c r="J568">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
@@ -19891,7 +19891,7 @@
         <v>33</v>
       </c>
       <c r="G570">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H570" t="s">
         <v>32</v>
@@ -19900,7 +19900,7 @@
         <v>33</v>
       </c>
       <c r="J570">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
@@ -19923,7 +19923,7 @@
         <v>33</v>
       </c>
       <c r="G571">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H571" t="s">
         <v>32</v>
@@ -19932,7 +19932,7 @@
         <v>33</v>
       </c>
       <c r="J571">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.3">
@@ -19987,7 +19987,7 @@
         <v>33</v>
       </c>
       <c r="G573">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H573" t="s">
         <v>32</v>
@@ -19996,7 +19996,7 @@
         <v>33</v>
       </c>
       <c r="J573">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.3">
@@ -20051,7 +20051,7 @@
         <v>33</v>
       </c>
       <c r="G575">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="H575" t="s">
         <v>32</v>
@@ -20060,7 +20060,7 @@
         <v>33</v>
       </c>
       <c r="J575">
-        <v>500</v>
+        <v>125</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.3">
@@ -20083,7 +20083,7 @@
         <v>33</v>
       </c>
       <c r="G576">
-        <v>7500</v>
+        <v>1875</v>
       </c>
       <c r="H576" t="s">
         <v>32</v>
@@ -20092,7 +20092,7 @@
         <v>33</v>
       </c>
       <c r="J576">
-        <v>750</v>
+        <v>188</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
@@ -20147,7 +20147,7 @@
         <v>33</v>
       </c>
       <c r="G578">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="H578" t="s">
         <v>32</v>
@@ -20156,7 +20156,7 @@
         <v>33</v>
       </c>
       <c r="J578">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.3">
@@ -20179,7 +20179,7 @@
         <v>33</v>
       </c>
       <c r="G579">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="H579" t="s">
         <v>32</v>
@@ -20188,7 +20188,7 @@
         <v>33</v>
       </c>
       <c r="J579">
-        <v>1500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.3">
@@ -20243,7 +20243,7 @@
         <v>33</v>
       </c>
       <c r="G581">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H581" t="s">
         <v>32</v>
@@ -20252,7 +20252,7 @@
         <v>33</v>
       </c>
       <c r="J581">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.3">
@@ -20275,7 +20275,7 @@
         <v>33</v>
       </c>
       <c r="G582">
-        <v>25000</v>
+        <v>6250</v>
       </c>
       <c r="H582" t="s">
         <v>32</v>
@@ -20284,7 +20284,7 @@
         <v>33</v>
       </c>
       <c r="J582">
-        <v>2500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.3">
@@ -20307,7 +20307,7 @@
         <v>33</v>
       </c>
       <c r="G583">
-        <v>22500</v>
+        <v>5625</v>
       </c>
       <c r="H583" t="s">
         <v>32</v>
@@ -20316,7 +20316,7 @@
         <v>33</v>
       </c>
       <c r="J583">
-        <v>2250</v>
+        <v>563</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.3">
@@ -20371,7 +20371,7 @@
         <v>33</v>
       </c>
       <c r="G585">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="H585" t="s">
         <v>32</v>
@@ -20380,7 +20380,7 @@
         <v>33</v>
       </c>
       <c r="J585">
-        <v>5000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.3">
@@ -20403,7 +20403,7 @@
         <v>33</v>
       </c>
       <c r="G586">
-        <v>65000</v>
+        <v>16250</v>
       </c>
       <c r="H586" t="s">
         <v>32</v>
@@ -20412,7 +20412,7 @@
         <v>33</v>
       </c>
       <c r="J586">
-        <v>6500</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.3">
@@ -20467,7 +20467,7 @@
         <v>33</v>
       </c>
       <c r="G588">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H588" t="s">
         <v>32</v>
@@ -20476,7 +20476,7 @@
         <v>33</v>
       </c>
       <c r="J588">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.3">
@@ -20499,7 +20499,7 @@
         <v>33</v>
       </c>
       <c r="G589">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H589" t="s">
         <v>32</v>
@@ -20508,7 +20508,7 @@
         <v>33</v>
       </c>
       <c r="J589">
-        <v>12000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.3">
@@ -20531,7 +20531,7 @@
         <v>33</v>
       </c>
       <c r="G590">
-        <v>115000</v>
+        <v>28750</v>
       </c>
       <c r="H590" t="s">
         <v>32</v>
@@ -20540,7 +20540,7 @@
         <v>33</v>
       </c>
       <c r="J590">
-        <v>11500</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.3">
@@ -20595,7 +20595,7 @@
         <v>33</v>
       </c>
       <c r="G592">
-        <v>135000</v>
+        <v>33750</v>
       </c>
       <c r="H592" t="s">
         <v>32</v>
@@ -20604,7 +20604,7 @@
         <v>33</v>
       </c>
       <c r="J592">
-        <v>13500</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.3">
@@ -20627,7 +20627,7 @@
         <v>33</v>
       </c>
       <c r="G593">
-        <v>150000</v>
+        <v>37500</v>
       </c>
       <c r="H593" t="s">
         <v>32</v>
@@ -20636,7 +20636,7 @@
         <v>33</v>
       </c>
       <c r="J593">
-        <v>15000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.3">
@@ -20691,7 +20691,7 @@
         <v>33</v>
       </c>
       <c r="G595">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H595" t="s">
         <v>32</v>
@@ -20700,7 +20700,7 @@
         <v>33</v>
       </c>
       <c r="J595">
-        <v>11000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.3">
@@ -20723,7 +20723,7 @@
         <v>33</v>
       </c>
       <c r="G596">
-        <v>175000</v>
+        <v>43750</v>
       </c>
       <c r="H596" t="s">
         <v>32</v>
@@ -20732,7 +20732,7 @@
         <v>33</v>
       </c>
       <c r="J596">
-        <v>17500</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.3">
@@ -20755,7 +20755,7 @@
         <v>33</v>
       </c>
       <c r="G597">
-        <v>145000</v>
+        <v>36250</v>
       </c>
       <c r="H597" t="s">
         <v>32</v>
@@ -20764,7 +20764,7 @@
         <v>33</v>
       </c>
       <c r="J597">
-        <v>14500</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.3">
@@ -20819,7 +20819,7 @@
         <v>33</v>
       </c>
       <c r="G599">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H599" t="s">
         <v>32</v>
@@ -20828,7 +20828,7 @@
         <v>33</v>
       </c>
       <c r="J599">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.3">
@@ -20851,7 +20851,7 @@
         <v>33</v>
       </c>
       <c r="G600">
-        <v>250000</v>
+        <v>62500</v>
       </c>
       <c r="H600" t="s">
         <v>32</v>
@@ -20860,7 +20860,7 @@
         <v>33</v>
       </c>
       <c r="J600">
-        <v>25000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.3">
@@ -20915,7 +20915,7 @@
         <v>33</v>
       </c>
       <c r="G602">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H602" t="s">
         <v>32</v>
@@ -20924,7 +20924,7 @@
         <v>33</v>
       </c>
       <c r="J602">
-        <v>30000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.3">
@@ -20947,7 +20947,7 @@
         <v>33</v>
       </c>
       <c r="G603">
-        <v>325000</v>
+        <v>81250</v>
       </c>
       <c r="H603" t="s">
         <v>32</v>
@@ -20956,7 +20956,7 @@
         <v>33</v>
       </c>
       <c r="J603">
-        <v>32500</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.3">
@@ -21011,7 +21011,7 @@
         <v>33</v>
       </c>
       <c r="G605">
-        <v>375000</v>
+        <v>93750</v>
       </c>
       <c r="H605" t="s">
         <v>32</v>
@@ -21020,7 +21020,7 @@
         <v>33</v>
       </c>
       <c r="J605">
-        <v>37500</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.3">
@@ -21075,7 +21075,7 @@
         <v>33</v>
       </c>
       <c r="G607">
-        <v>275000</v>
+        <v>68750</v>
       </c>
       <c r="H607" t="s">
         <v>32</v>
@@ -21084,7 +21084,7 @@
         <v>33</v>
       </c>
       <c r="J607">
-        <v>27500</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.3">
@@ -21107,7 +21107,7 @@
         <v>33</v>
       </c>
       <c r="G608">
-        <v>350000</v>
+        <v>87500</v>
       </c>
       <c r="H608" t="s">
         <v>32</v>
@@ -21116,7 +21116,7 @@
         <v>33</v>
       </c>
       <c r="J608">
-        <v>35000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.3">
@@ -21171,7 +21171,7 @@
         <v>33</v>
       </c>
       <c r="G610">
-        <v>195000</v>
+        <v>48750</v>
       </c>
       <c r="H610" t="s">
         <v>32</v>
@@ -21180,7 +21180,7 @@
         <v>33</v>
       </c>
       <c r="J610">
-        <v>19500</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.3">
@@ -21203,7 +21203,7 @@
         <v>33</v>
       </c>
       <c r="G611">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="H611" t="s">
         <v>32</v>
@@ -21212,7 +21212,7 @@
         <v>33</v>
       </c>
       <c r="J611">
-        <v>45000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.3">
@@ -21267,7 +21267,7 @@
         <v>33</v>
       </c>
       <c r="G613">
-        <v>420000</v>
+        <v>105000</v>
       </c>
       <c r="H613" t="s">
         <v>32</v>
@@ -21276,7 +21276,7 @@
         <v>33</v>
       </c>
       <c r="J613">
-        <v>42000</v>
+        <v>10500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCFF15A-6B38-4B59-ABC4-AE44736DEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6D3E7-FB39-468C-8437-0D89128E9C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{534C0A31-6054-457C-9B9C-64EE1B8E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4F7E5B-6F2D-42BA-966D-3022DC7DA167}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +663,7 @@
         <v>1.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -683,16 +683,16 @@
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>1.5</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>1.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -860,10 +860,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -880,19 +880,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C3F02-FF45-4ECB-8714-295D3142A729}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F3FCE3-C28D-457E-A889-A83085772ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3E828-1AFB-46DD-BC1B-F6C8D6675A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="915" windowWidth="18915" windowHeight="14805" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>grade|Int</t>
   </si>
@@ -51,28 +51,19 @@
     <t>0, 0, 0.02</t>
   </si>
   <si>
-    <t>0, 0.02, 0.04</t>
-  </si>
-  <si>
-    <t>0, 0.045, 0.06</t>
-  </si>
-  <si>
-    <t>0, 0.07, 0.08</t>
-  </si>
-  <si>
-    <t>0.025, 0.05, 0.1</t>
-  </si>
-  <si>
-    <t>0.075, 0.01, 0.13</t>
-  </si>
-  <si>
-    <t>0.1, 0.155, 0.16</t>
-  </si>
-  <si>
-    <t>0.3, 0.25, 0.19</t>
-  </si>
-  <si>
-    <t>0.5, 0.4, 0.21</t>
+    <t>0, 0.025, 0.07</t>
+  </si>
+  <si>
+    <t>0.075, 0.1, 0.15</t>
+  </si>
+  <si>
+    <t>0.125, 0.175, 0.2</t>
+  </si>
+  <si>
+    <t>0.3, 0.25, 0.2</t>
+  </si>
+  <si>
+    <t>0.5, 0.45, 0.35</t>
   </si>
 </sst>
 </file>
@@ -436,11 +427,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229DACE-9069-49CB-91C9-21CCC9F9EC21}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -493,10 +482,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -504,10 +493,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -518,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -529,43 +518,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3E828-1AFB-46DD-BC1B-F6C8D6675A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD26AAF-8254-464C-AFDB-535A56CC26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>grade|Int</t>
   </si>
@@ -64,6 +65,38 @@
   </si>
   <si>
     <t>0.5, 0.45, 0.35</t>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229DACE-9069-49CB-91C9-21CCC9F9EC21}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -528,4 +561,79 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FFAC4-D517-4B5B-AF66-D461905177C5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD26AAF-8254-464C-AFDB-535A56CC26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25994152-3D59-4527-A13A-FBE58626AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
+    <sheet name="ShopActorTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>grade|Int</t>
   </si>
@@ -96,6 +97,22 @@
   </si>
   <si>
     <t>Spell50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FFAC4-D517-4B5B-AF66-D461905177C5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -636,4 +653,79 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25994152-3D59-4527-A13A-FBE58626AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412601A3-A3B3-44EA-A9DC-D9B204A5DF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
-    <sheet name="ShopActorTable" sheetId="3" r:id="rId3"/>
+    <sheet name="GachActorTable" sheetId="5" r:id="rId3"/>
+    <sheet name="ShopActorTable" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>grade|Int</t>
   </si>
@@ -114,6 +116,21 @@
   <si>
     <t>Actor50</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob|Float</t>
+  </si>
+  <si>
+    <t>adjustProbs|Float!</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</t>
+  </si>
+  <si>
+    <t>1, 0.9, 0.8, 0.7, 0.6, 0.5, 0.4, 0.3, 0.2, 0.16, 0.16</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04</t>
   </si>
 </sst>
 </file>
@@ -656,10 +673,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -728,4 +806,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2BB6E-FC3E-49AF-90D0-69E01A9B1876}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412601A3-A3B3-44EA-A9DC-D9B204A5DF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B0268-BB81-4BB0-9E8E-4EE17449AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="28830" windowHeight="7830" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
-    <sheet name="GachActorTable" sheetId="5" r:id="rId3"/>
+    <sheet name="GachaActorTable" sheetId="5" r:id="rId3"/>
     <sheet name="ShopActorTable" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -676,7 +675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,17 +807,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2BB6E-FC3E-49AF-90D0-69E01A9B1876}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0B0268-BB81-4BB0-9E8E-4EE17449AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B8BB87-5948-465C-8447-93F9B49A27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="28830" windowHeight="7830" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>grade|Int</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spell10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,15 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -598,18 +582,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FFAC4-D517-4B5B-AF66-D461905177C5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -619,49 +601,37 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4">
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
         <v>400000</v>
       </c>
     </row>
@@ -675,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -689,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +673,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,7 +684,7 @@
         <v>0.04</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,7 +695,7 @@
         <v>0.16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -736,17 +706,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -756,50 +725,27 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
         <v>90000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>400000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B8BB87-5948-465C-8447-93F9B49A27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04BB70-41C3-461B-A897-228E25178F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -45,30 +45,6 @@
     <t>star|Int</t>
   </si>
   <si>
-    <t>probs|float!</t>
-  </si>
-  <si>
-    <t>0, 0, 0.01</t>
-  </si>
-  <si>
-    <t>0, 0, 0.02</t>
-  </si>
-  <si>
-    <t>0, 0.025, 0.07</t>
-  </si>
-  <si>
-    <t>0.075, 0.1, 0.15</t>
-  </si>
-  <si>
-    <t>0.125, 0.175, 0.2</t>
-  </si>
-  <si>
-    <t>0.3, 0.25, 0.2</t>
-  </si>
-  <si>
-    <t>0.5, 0.45, 0.35</t>
-  </si>
-  <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +90,30 @@
   </si>
   <si>
     <t>0, 0, 0, 0, 0, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04</t>
+  </si>
+  <si>
+    <t>probs|Float!</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</t>
+  </si>
+  <si>
+    <t>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</t>
+  </si>
+  <si>
+    <t>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</t>
+  </si>
+  <si>
+    <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229DACE-9069-49CB-91C9-21CCC9F9EC21}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -593,18 +593,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>0.04</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>0.16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -717,18 +717,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>10</v>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04BB70-41C3-461B-A897-228E25178F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096BE9C-7C96-4DC5-99B2-DBCFECD9E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,6 @@
     <t>adjustProbs|Float!</t>
   </si>
   <si>
-    <t>0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</t>
-  </si>
-  <si>
-    <t>1, 0.9, 0.8, 0.7, 0.6, 0.5, 0.4, 0.3, 0.2, 0.16, 0.16</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04</t>
-  </si>
-  <si>
     <t>probs|Float!</t>
   </si>
   <si>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
+  </si>
+  <si>
+    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229DACE-9069-49CB-91C9-21CCC9F9EC21}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -645,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -673,7 +671,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.16</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096BE9C-7C96-4DC5-99B2-DBCFECD9E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB59FF-9752-4CCB-8FD0-5A7D1211543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>grade|Int</t>
   </si>
@@ -69,51 +69,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>prob|Float</t>
+  </si>
+  <si>
+    <t>adjustProbs|Float!</t>
+  </si>
+  <si>
+    <t>probs|Float!</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</t>
+  </si>
+  <si>
+    <t>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</t>
+  </si>
+  <si>
+    <t>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</t>
+  </si>
+  <si>
+    <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
+  </si>
+  <si>
+    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+  </si>
+  <si>
+    <t>price|Int</t>
+  </si>
+  <si>
     <t>Actor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actor10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob|Float</t>
-  </si>
-  <si>
-    <t>adjustProbs|Float!</t>
-  </si>
-  <si>
-    <t>probs|Float!</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</t>
-  </si>
-  <si>
-    <t>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</t>
-  </si>
-  <si>
-    <t>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</t>
-  </si>
-  <si>
-    <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
-  </si>
-  <si>
-    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
   </si>
 </sst>
 </file>
@@ -494,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -657,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,7 +678,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -682,7 +689,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,7 +700,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -715,35 +722,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90000</v>
+        <v>450000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB59FF-9752-4CCB-8FD0-5A7D1211543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62031D7-14F9-45E7-BD5C-3ECA442300C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
     <sheet name="GachaActorTable" sheetId="5" r:id="rId3"/>
     <sheet name="ShopActorTable" sheetId="3" r:id="rId4"/>
+    <sheet name="GachaEquipTable" sheetId="6" r:id="rId5"/>
+    <sheet name="ShopEquipTable" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>grade|Int</t>
   </si>
@@ -121,6 +123,15 @@
   </si>
   <si>
     <t>Actor10</t>
+  </si>
+  <si>
+    <t>prob|float</t>
+  </si>
+  <si>
+    <t>Equip1</t>
+  </si>
+  <si>
+    <t>Equip10</t>
   </si>
 </sst>
 </file>
@@ -713,7 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -758,4 +771,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>750000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62031D7-14F9-45E7-BD5C-3ECA442300C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47891D52-D9DF-44EF-BE13-799C58AD1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>grade|Int</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Equip10</t>
+  </si>
+  <si>
+    <t>Equip50</t>
   </si>
 </sst>
 </file>
@@ -837,10 +840,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -881,6 +884,17 @@
         <v>750000</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3500000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47891D52-D9DF-44EF-BE13-799C58AD1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE65B1-A400-4823-8E70-985884FE33C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>grade|Int</t>
   </si>
@@ -47,94 +47,79 @@
     <t>star|Int</t>
   </si>
   <si>
+    <t>prob|Float</t>
+  </si>
+  <si>
+    <t>adjustProbs|Float!</t>
+  </si>
+  <si>
+    <t>probs|Float!</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</t>
+  </si>
+  <si>
+    <t>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</t>
+  </si>
+  <si>
+    <t>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</t>
+  </si>
+  <si>
+    <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
+  </si>
+  <si>
+    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
+  </si>
+  <si>
     <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>count|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1</t>
+  </si>
+  <si>
+    <t>Actor10</t>
+  </si>
+  <si>
+    <t>prob|float</t>
+  </si>
+  <si>
+    <t>Equip1</t>
+  </si>
+  <si>
+    <t>Equip10</t>
+  </si>
+  <si>
+    <t>Equip50</t>
   </si>
   <si>
     <t>Spell2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spell10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spell50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob|Float</t>
-  </si>
-  <si>
-    <t>adjustProbs|Float!</t>
-  </si>
-  <si>
-    <t>probs|Float!</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</t>
-  </si>
-  <si>
-    <t>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</t>
-  </si>
-  <si>
-    <t>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</t>
-  </si>
-  <si>
-    <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
-  </si>
-  <si>
-    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
-  </si>
-  <si>
-    <t>id|String</t>
-  </si>
-  <si>
-    <t>count|Int</t>
-  </si>
-  <si>
-    <t>price|Int</t>
-  </si>
-  <si>
-    <t>Actor1</t>
-  </si>
-  <si>
-    <t>Actor10</t>
-  </si>
-  <si>
-    <t>prob|float</t>
-  </si>
-  <si>
-    <t>Equip1</t>
-  </si>
-  <si>
-    <t>Equip10</t>
-  </si>
-  <si>
-    <t>Equip50</t>
   </si>
 </sst>
 </file>
@@ -515,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -559,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -614,46 +599,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4">
-        <v>400000</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,7 +677,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +688,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,7 +699,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -727,9 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -738,35 +721,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>450000</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +826,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -853,46 +836,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>80000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>750000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4">
-        <v>3500000</v>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE65B1-A400-4823-8E70-985884FE33C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D7C9B-90F3-41DB-BFD7-4619C7B48815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -77,15 +77,6 @@
     <t>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</t>
   </si>
   <si>
-    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</t>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</t>
-  </si>
-  <si>
-    <t>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</t>
-  </si>
-  <si>
     <t>id|String</t>
   </si>
   <si>
@@ -120,6 +111,15 @@
   </si>
   <si>
     <t>Spell50</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016</t>
+  </si>
+  <si>
+    <t>1, 0.75, 0.67, 0.45, 0.33, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FFAC4-D517-4B5B-AF66-D461905177C5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,46 +599,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -677,7 +679,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +690,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,7 +701,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -721,35 +725,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -836,46 +840,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>750</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
       <c r="C4">
-        <v>3500</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D7C9B-90F3-41DB-BFD7-4619C7B48815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7FF27-F43D-440C-9DA9-E913BBC62BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="2" r:id="rId2"/>
     <sheet name="GachaActorTable" sheetId="5" r:id="rId3"/>
     <sheet name="ShopActorTable" sheetId="3" r:id="rId4"/>
-    <sheet name="GachaEquipTable" sheetId="6" r:id="rId5"/>
-    <sheet name="ShopEquipTable" sheetId="7" r:id="rId6"/>
+    <sheet name="ShopEquipTable" sheetId="7" r:id="rId5"/>
+    <sheet name="GachaEquipTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>grade|Int</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Equip10</t>
   </si>
   <si>
-    <t>Equip50</t>
-  </si>
-  <si>
     <t>Spell2</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>1, 0.75, 0.67, 0.45, 0.33, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</t>
+  </si>
+  <si>
+    <t>Equip20</t>
+  </si>
+  <si>
+    <t>rarity|Int</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FFAC4-D517-4B5B-AF66-D461905177C5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -610,7 +615,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -621,7 +626,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -632,7 +637,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -679,7 +684,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,7 +695,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -701,7 +706,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -764,72 +769,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -873,13 +816,106 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7FF27-F43D-440C-9DA9-E913BBC62BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D83283-9FE2-4C2F-A82F-B749EF4F965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -116,13 +116,13 @@
     <t>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016</t>
   </si>
   <si>
-    <t>1, 0.75, 0.67, 0.45, 0.33, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</t>
-  </si>
-  <si>
     <t>Equip20</t>
   </si>
   <si>
     <t>rarity|Int</t>
+  </si>
+  <si>
+    <t>1, 0.5, 0.25, 0.175, 0.3, 0.25, 0.15, 0.15, 0.15, 0.1, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -816,7 +816,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D83283-9FE2-4C2F-A82F-B749EF4F965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC77569C-4946-4843-BC10-96AED2A0E449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="30000" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEF23C-412E-4D28-AEE8-44AC7F89AF56}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC77569C-4946-4843-BC10-96AED2A0E449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47BD673-F21D-417B-BB34-F3ED32E47FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -744,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47BD673-F21D-417B-BB34-F3ED32E47FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515C45B-FD9A-43C7-BB5C-443037B7626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -719,9 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -744,10 +742,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>200</v>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515C45B-FD9A-43C7-BB5C-443037B7626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606FA56-1D99-4948-BBEF-275D097F12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DDCC6-F5B0-489A-9DF2-62AB0ECF9CDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Gacha.xlsx
+++ b/Excel/Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4606FA56-1D99-4948-BBEF-275D097F12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3533C06-7B38-4278-8FEE-80C55815F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{46033DEB-6FD4-418A-B621-781919E55E75}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</t>
   </si>
   <si>
-    <t>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016</t>
-  </si>
-  <si>
     <t>Equip20</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>1, 0.5, 0.25, 0.175, 0.3, 0.25, 0.15, 0.15, 0.15, 0.1, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</t>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96048EF0-3537-4B44-944F-0B06AC9FD7C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +814,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE98F16-E941-497F-9DA3-F4E03C58161F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
